--- a/benchmarks/results/plots/results-Fig2.xlsx
+++ b/benchmarks/results/plots/results-Fig2.xlsx
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>98.01884882001667</v>
+        <v>57.04199372071903</v>
       </c>
       <c r="J2" t="n">
-        <v>98.01884882001667</v>
+        <v>57.04199372071903</v>
       </c>
     </row>
     <row r="3">
@@ -544,10 +544,10 @@
         <v>41.7695395283253</v>
       </c>
       <c r="I3" t="n">
-        <v>45.54500880996019</v>
+        <v>4.568153710662557</v>
       </c>
       <c r="J3" t="n">
-        <v>56.24930929169137</v>
+        <v>15.27245419239373</v>
       </c>
     </row>
     <row r="4">
@@ -578,10 +578,10 @@
         <v>46.24276153182453</v>
       </c>
       <c r="I4" t="n">
-        <v>44.88204076304537</v>
+        <v>3.905185663747737</v>
       </c>
       <c r="J4" t="n">
-        <v>51.77608728819214</v>
+        <v>10.79923218889451</v>
       </c>
     </row>
     <row r="5">
@@ -612,10 +612,10 @@
         <v>56.18911791337925</v>
       </c>
       <c r="I5" t="n">
-        <v>41.82973090663742</v>
+        <v>0.8528758073397853</v>
       </c>
       <c r="J5" t="n">
-        <v>41.82973090663742</v>
+        <v>0.8528758073397853</v>
       </c>
     </row>
     <row r="6">
@@ -646,10 +646,10 @@
         <v>44.3560417844061</v>
       </c>
       <c r="I6" t="n">
-        <v>45.38890078974857</v>
+        <v>4.412045690450931</v>
       </c>
       <c r="J6" t="n">
-        <v>53.66280703561057</v>
+        <v>12.68595193631293</v>
       </c>
     </row>
     <row r="7">
@@ -680,10 +680,10 @@
         <v>30.67925701714791</v>
       </c>
       <c r="I7" t="n">
-        <v>47.81946956722518</v>
+        <v>6.842614467927547</v>
       </c>
       <c r="J7" t="n">
-        <v>67.33959180286877</v>
+        <v>26.36273670357112</v>
       </c>
     </row>
     <row r="8">
@@ -714,10 +714,10 @@
         <v>49.74298836873362</v>
       </c>
       <c r="I8" t="n">
-        <v>44.06938718541462</v>
+        <v>3.092532086116982</v>
       </c>
       <c r="J8" t="n">
-        <v>48.27586045128305</v>
+        <v>7.299005351985414</v>
       </c>
     </row>
     <row r="9">
@@ -748,10 +748,10 @@
         <v>51.71546452726919</v>
       </c>
       <c r="I9" t="n">
-        <v>43.09030109899047</v>
+        <v>2.113445999692836</v>
       </c>
       <c r="J9" t="n">
-        <v>46.30338429274748</v>
+        <v>5.326529193449844</v>
       </c>
     </row>
     <row r="10">
@@ -782,10 +782,10 @@
         <v>32.24704844366209</v>
       </c>
       <c r="I10" t="n">
-        <v>47.38076393067924</v>
+        <v>6.403908831381607</v>
       </c>
       <c r="J10" t="n">
-        <v>65.77180037635458</v>
+        <v>24.79494527705695</v>
       </c>
     </row>
     <row r="11">
@@ -816,10 +816,10 @@
         <v>44.57261520219429</v>
       </c>
       <c r="I11" t="n">
-        <v>45.42133531979337</v>
+        <v>4.444480220495734</v>
       </c>
       <c r="J11" t="n">
-        <v>53.44623361782238</v>
+        <v>12.46937851852474</v>
       </c>
     </row>
     <row r="12">
@@ -850,10 +850,10 @@
         <v>45.16864240208564</v>
       </c>
       <c r="I12" t="n">
-        <v>45.24400034070838</v>
+        <v>4.267145241410745</v>
       </c>
       <c r="J12" t="n">
-        <v>52.85020641793103</v>
+        <v>11.8733513186334</v>
       </c>
     </row>
     <row r="13">
@@ -884,10 +884,10 @@
         <v>39.93603060730549</v>
       </c>
       <c r="I13" t="n">
-        <v>45.61987927835062</v>
+        <v>4.643024179052986</v>
       </c>
       <c r="J13" t="n">
-        <v>58.08281821271118</v>
+        <v>17.10596311341354</v>
       </c>
     </row>
     <row r="14">
@@ -918,10 +918,10 @@
         <v>39.27344763039705</v>
       </c>
       <c r="I14" t="n">
-        <v>45.63977842981082</v>
+        <v>4.662923330513188</v>
       </c>
       <c r="J14" t="n">
-        <v>58.74540118961962</v>
+        <v>17.76854609032198</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         <v>47.1630973166035</v>
       </c>
       <c r="I15" t="n">
-        <v>44.86471064139648</v>
+        <v>3.887855542098848</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85575150341317</v>
+        <v>9.878896404115537</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +986,10 @@
         <v>17.89888037703814</v>
       </c>
       <c r="I16" t="n">
-        <v>48.1459652408779</v>
+        <v>7.169110141580262</v>
       </c>
       <c r="J16" t="n">
-        <v>80.11996844297853</v>
+        <v>39.14311334368089</v>
       </c>
     </row>
     <row r="17">
@@ -1020,10 +1020,10 @@
         <v>26.46311080579538</v>
       </c>
       <c r="I17" t="n">
-        <v>47.81379675603736</v>
+        <v>6.836941656739725</v>
       </c>
       <c r="J17" t="n">
-        <v>71.55573801422129</v>
+        <v>30.57888291492365</v>
       </c>
     </row>
     <row r="18">
@@ -1054,10 +1054,10 @@
         <v>36.87448745967752</v>
       </c>
       <c r="I18" t="n">
-        <v>46.36566412926454</v>
+        <v>5.388809029966907</v>
       </c>
       <c r="J18" t="n">
-        <v>61.14436136033915</v>
+        <v>20.16750626104152</v>
       </c>
     </row>
     <row r="19">
@@ -1088,10 +1088,10 @@
         <v>30.88730496256219</v>
       </c>
       <c r="I19" t="n">
-        <v>47.4332332628699</v>
+        <v>6.456378163572268</v>
       </c>
       <c r="J19" t="n">
-        <v>67.13154385745449</v>
+        <v>26.15468875815684</v>
       </c>
     </row>
     <row r="20">
@@ -1122,10 +1122,10 @@
         <v>42.75570340940675</v>
       </c>
       <c r="I20" t="n">
-        <v>45.52445013746872</v>
+        <v>4.547595038171082</v>
       </c>
       <c r="J20" t="n">
-        <v>55.26314541060992</v>
+        <v>14.28629031131229</v>
       </c>
     </row>
     <row r="21">
@@ -1156,10 +1156,10 @@
         <v>49.49099725518467</v>
       </c>
       <c r="I21" t="n">
-        <v>44.15759242458651</v>
+        <v>3.180737325288874</v>
       </c>
       <c r="J21" t="n">
-        <v>48.527851564832</v>
+        <v>7.550996465534361</v>
       </c>
     </row>
     <row r="22">
@@ -1190,10 +1190,10 @@
         <v>44.80996664400132</v>
       </c>
       <c r="I22" t="n">
-        <v>45.42606480183206</v>
+        <v>4.449209702534425</v>
       </c>
       <c r="J22" t="n">
-        <v>53.20888217601535</v>
+        <v>12.23202707671771</v>
       </c>
     </row>
     <row r="23">
@@ -1224,10 +1224,10 @@
         <v>48.75303984215779</v>
       </c>
       <c r="I23" t="n">
-        <v>44.06655127537232</v>
+        <v>3.089696176074682</v>
       </c>
       <c r="J23" t="n">
-        <v>49.26580897785888</v>
+        <v>8.288953878561244</v>
       </c>
     </row>
     <row r="24">
@@ -1258,10 +1258,10 @@
         <v>50.290697075671</v>
       </c>
       <c r="I24" t="n">
-        <v>43.91082180759008</v>
+        <v>2.933966708292438</v>
       </c>
       <c r="J24" t="n">
-        <v>47.72815174434567</v>
+        <v>6.751296645048036</v>
       </c>
     </row>
     <row r="25">
@@ -1292,10 +1292,10 @@
         <v>29.6528357066311</v>
       </c>
       <c r="I25" t="n">
-        <v>47.79306333766573</v>
+        <v>6.816208238368091</v>
       </c>
       <c r="J25" t="n">
-        <v>68.36601311338558</v>
+        <v>27.38915801408793</v>
       </c>
     </row>
     <row r="26">
@@ -1326,10 +1326,10 @@
         <v>29.51142221418769</v>
       </c>
       <c r="I26" t="n">
-        <v>47.38118062656112</v>
+        <v>6.404325527263481</v>
       </c>
       <c r="J26" t="n">
-        <v>68.50742660582898</v>
+        <v>27.53057150653134</v>
       </c>
     </row>
     <row r="27">
@@ -1360,10 +1360,10 @@
         <v>51.35410237214358</v>
       </c>
       <c r="I27" t="n">
-        <v>43.50421383421207</v>
+        <v>2.527358734914436</v>
       </c>
       <c r="J27" t="n">
-        <v>46.66474644787309</v>
+        <v>5.687891348575455</v>
       </c>
     </row>
     <row r="28">
@@ -1394,10 +1394,10 @@
         <v>35.47868959773201</v>
       </c>
       <c r="I28" t="n">
-        <v>46.41246679327049</v>
+        <v>5.435611693972852</v>
       </c>
       <c r="J28" t="n">
-        <v>62.54015922228466</v>
+        <v>21.56330412298703</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         <v>48.36898599809631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.09148023789327</v>
+        <v>3.114625138595635</v>
       </c>
       <c r="J29" t="n">
-        <v>49.64986282192036</v>
+        <v>8.673007722622721</v>
       </c>
     </row>
     <row r="30">
@@ -1462,10 +1462,10 @@
         <v>33.30021513864155</v>
       </c>
       <c r="I30" t="n">
-        <v>47.32391778893011</v>
+        <v>6.347062689632473</v>
       </c>
       <c r="J30" t="n">
-        <v>64.71863368137512</v>
+        <v>23.74177858207749</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         <v>40.77509555839653</v>
       </c>
       <c r="I31" t="n">
-        <v>45.90620985089317</v>
+        <v>4.929354751595532</v>
       </c>
       <c r="J31" t="n">
-        <v>57.24375326162014</v>
+        <v>16.26689816232251</v>
       </c>
     </row>
     <row r="32">
@@ -1530,10 +1530,10 @@
         <v>25.93856094899037</v>
       </c>
       <c r="I32" t="n">
-        <v>47.80678671583789</v>
+        <v>6.829931616540257</v>
       </c>
       <c r="J32" t="n">
-        <v>72.0802878710263</v>
+        <v>31.10343277172866</v>
       </c>
     </row>
     <row r="33">
@@ -1564,10 +1564,10 @@
         <v>23.11020371636912</v>
       </c>
       <c r="I33" t="n">
-        <v>47.58426518955276</v>
+        <v>6.607410090255122</v>
       </c>
       <c r="J33" t="n">
-        <v>74.90864510364756</v>
+        <v>33.93179000434991</v>
       </c>
     </row>
     <row r="34">
@@ -1598,10 +1598,10 @@
         <v>42.23986144392123</v>
       </c>
       <c r="I34" t="n">
-        <v>45.65908195250055</v>
+        <v>4.682226853202913</v>
       </c>
       <c r="J34" t="n">
-        <v>55.77898737609544</v>
+        <v>14.80213227679781</v>
       </c>
     </row>
     <row r="35">
@@ -1632,10 +1632,10 @@
         <v>47.51268931154627</v>
       </c>
       <c r="I35" t="n">
-        <v>44.82729034596623</v>
+        <v>3.850435246668596</v>
       </c>
       <c r="J35" t="n">
-        <v>50.5061595084704</v>
+        <v>9.529304409172767</v>
       </c>
     </row>
     <row r="36">
@@ -1666,10 +1666,10 @@
         <v>28.10870595748798</v>
       </c>
       <c r="I36" t="n">
-        <v>47.59228534870418</v>
+        <v>6.615430249406543</v>
       </c>
       <c r="J36" t="n">
-        <v>69.91014286252869</v>
+        <v>28.93328776323105</v>
       </c>
     </row>
     <row r="37">
@@ -1700,10 +1700,10 @@
         <v>33.43732973795723</v>
       </c>
       <c r="I37" t="n">
-        <v>47.35766609380116</v>
+        <v>6.380810994503527</v>
       </c>
       <c r="J37" t="n">
-        <v>64.58151908205944</v>
+        <v>23.60466398276181</v>
       </c>
     </row>
     <row r="38">
@@ -1734,10 +1734,10 @@
         <v>-330932225215385.4</v>
       </c>
       <c r="I38" t="n">
-        <v>68.69227525201667</v>
+        <v>27.71542015271903</v>
       </c>
       <c r="J38" t="n">
-        <v>330932225215483.4</v>
+        <v>330932225215442.4</v>
       </c>
     </row>
     <row r="39">
@@ -1768,10 +1768,10 @@
         <v>31.44759329369208</v>
       </c>
       <c r="I39" t="n">
-        <v>47.41764472368707</v>
+        <v>6.440789624389431</v>
       </c>
       <c r="J39" t="n">
-        <v>66.57125552632459</v>
+        <v>25.59440042702695</v>
       </c>
     </row>
     <row r="40">
@@ -1802,10 +1802,10 @@
         <v>24.5155556139107</v>
       </c>
       <c r="I40" t="n">
-        <v>47.4969233905699</v>
+        <v>6.520068291272267</v>
       </c>
       <c r="J40" t="n">
-        <v>73.50329320610598</v>
+        <v>32.52643810680834</v>
       </c>
     </row>
     <row r="41">
@@ -1836,10 +1836,10 @@
         <v>37.77822655559574</v>
       </c>
       <c r="I41" t="n">
-        <v>46.40394021565191</v>
+        <v>5.427085116354277</v>
       </c>
       <c r="J41" t="n">
-        <v>60.24062226442094</v>
+        <v>19.2637671651233</v>
       </c>
     </row>
     <row r="42">
@@ -1870,10 +1870,10 @@
         <v>39.59686927830653</v>
       </c>
       <c r="I42" t="n">
-        <v>45.62494020546822</v>
+        <v>4.648085106170583</v>
       </c>
       <c r="J42" t="n">
-        <v>58.42197954171014</v>
+        <v>17.44512444241251</v>
       </c>
     </row>
     <row r="43">
@@ -1904,10 +1904,10 @@
         <v>30.33747935645204</v>
       </c>
       <c r="I43" t="n">
-        <v>47.45205536085036</v>
+        <v>6.475200261552722</v>
       </c>
       <c r="J43" t="n">
-        <v>67.68136946356464</v>
+        <v>26.70451436426699</v>
       </c>
     </row>
     <row r="44">
@@ -1938,10 +1938,10 @@
         <v>31.94883193081232</v>
       </c>
       <c r="I44" t="n">
-        <v>47.41172501772737</v>
+        <v>6.434869918429733</v>
       </c>
       <c r="J44" t="n">
-        <v>66.07001688920435</v>
+        <v>25.09316178990671</v>
       </c>
     </row>
     <row r="45">
@@ -1972,10 +1972,10 @@
         <v>27.26272677340766</v>
       </c>
       <c r="I45" t="n">
-        <v>47.55528255176836</v>
+        <v>6.578427452470727</v>
       </c>
       <c r="J45" t="n">
-        <v>70.75612204660901</v>
+        <v>29.77926694731137</v>
       </c>
     </row>
     <row r="46">
@@ -2006,10 +2006,10 @@
         <v>26.90992848104249</v>
       </c>
       <c r="I46" t="n">
-        <v>47.57135698218771</v>
+        <v>6.594501882890071</v>
       </c>
       <c r="J46" t="n">
-        <v>71.10892033897419</v>
+        <v>30.13206523967655</v>
       </c>
     </row>
     <row r="47">
@@ -2040,10 +2040,10 @@
         <v>38.17118217389679</v>
       </c>
       <c r="I47" t="n">
-        <v>46.40206828995865</v>
+        <v>5.425213190661012</v>
       </c>
       <c r="J47" t="n">
-        <v>59.84766664611988</v>
+        <v>18.87081154682225</v>
       </c>
     </row>
     <row r="48">
@@ -2074,10 +2074,10 @@
         <v>39.82403126653966</v>
       </c>
       <c r="I48" t="n">
-        <v>46.03210909088561</v>
+        <v>5.055253991587975</v>
       </c>
       <c r="J48" t="n">
-        <v>58.19481755347701</v>
+        <v>17.21796245417937</v>
       </c>
     </row>
     <row r="49">
@@ -2108,10 +2108,10 @@
         <v>55.41830381850416</v>
       </c>
       <c r="I49" t="n">
-        <v>41.87741632560939</v>
+        <v>0.9005612263117513</v>
       </c>
       <c r="J49" t="n">
-        <v>42.60054500151251</v>
+        <v>1.623689902214878</v>
       </c>
     </row>
     <row r="50">
@@ -2142,10 +2142,10 @@
         <v>28.04091690126657</v>
       </c>
       <c r="I50" t="n">
-        <v>47.51346292189244</v>
+        <v>6.536607822594803</v>
       </c>
       <c r="J50" t="n">
-        <v>69.9779319187501</v>
+        <v>29.00107681945246</v>
       </c>
     </row>
     <row r="51">
@@ -2176,10 +2176,10 @@
         <v>44.48650078363541</v>
       </c>
       <c r="I51" t="n">
-        <v>45.82918697714184</v>
+        <v>4.852331877844207</v>
       </c>
       <c r="J51" t="n">
-        <v>53.53234803638126</v>
+        <v>12.55549293708363</v>
       </c>
     </row>
     <row r="52">
@@ -2210,10 +2210,10 @@
         <v>22.8430937877366</v>
       </c>
       <c r="I52" t="n">
-        <v>47.87719217952958</v>
+        <v>6.900337080231942</v>
       </c>
       <c r="J52" t="n">
-        <v>75.17575503228008</v>
+        <v>34.19889993298244</v>
       </c>
     </row>
     <row r="53">
@@ -2244,10 +2244,10 @@
         <v>46.92974222368663</v>
       </c>
       <c r="I53" t="n">
-        <v>44.89292373405774</v>
+        <v>3.916068634760101</v>
       </c>
       <c r="J53" t="n">
-        <v>51.08910659633004</v>
+        <v>10.1122514970324</v>
       </c>
     </row>
     <row r="54">
@@ -2278,10 +2278,10 @@
         <v>36.39077134782562</v>
       </c>
       <c r="I54" t="n">
-        <v>46.38453649775817</v>
+        <v>5.407681398460532</v>
       </c>
       <c r="J54" t="n">
-        <v>61.62807747219105</v>
+        <v>20.65122237289341</v>
       </c>
     </row>
     <row r="55">
@@ -2312,10 +2312,10 @@
         <v>52.58378780780419</v>
       </c>
       <c r="I55" t="n">
-        <v>42.37151121633364</v>
+        <v>1.394656117036007</v>
       </c>
       <c r="J55" t="n">
-        <v>45.43506101221248</v>
+        <v>4.458205912914842</v>
       </c>
     </row>
     <row r="56">
@@ -2346,10 +2346,10 @@
         <v>21.85374638363091</v>
       </c>
       <c r="I56" t="n">
-        <v>48.26362836421245</v>
+        <v>7.286773264914814</v>
       </c>
       <c r="J56" t="n">
-        <v>76.16510243638577</v>
+        <v>35.18824733708813</v>
       </c>
     </row>
     <row r="57">
@@ -2380,10 +2380,10 @@
         <v>43.77338213125483</v>
       </c>
       <c r="I57" t="n">
-        <v>45.47807055361939</v>
+        <v>4.501215454321752</v>
       </c>
       <c r="J57" t="n">
-        <v>54.24546668876184</v>
+        <v>13.26861158946421</v>
       </c>
     </row>
     <row r="58">
@@ -2414,10 +2414,10 @@
         <v>36.31329731830293</v>
       </c>
       <c r="I58" t="n">
-        <v>46.87943810593635</v>
+        <v>5.902583006638714</v>
       </c>
       <c r="J58" t="n">
-        <v>61.70555150171374</v>
+        <v>20.72869640241611</v>
       </c>
     </row>
     <row r="59">
@@ -2448,10 +2448,10 @@
         <v>19.013587086557</v>
       </c>
       <c r="I59" t="n">
-        <v>47.96290727946273</v>
+        <v>6.986052180165096</v>
       </c>
       <c r="J59" t="n">
-        <v>79.00526173345968</v>
+        <v>38.02840663416204</v>
       </c>
     </row>
     <row r="60">
@@ -2482,10 +2482,10 @@
         <v>31.24873738813833</v>
       </c>
       <c r="I60" t="n">
-        <v>47.42412230203597</v>
+        <v>6.447267202738331</v>
       </c>
       <c r="J60" t="n">
-        <v>66.77011143187835</v>
+        <v>25.7932563325807</v>
       </c>
     </row>
     <row r="61">
@@ -2516,10 +2516,10 @@
         <v>16.64285267534803</v>
       </c>
       <c r="I61" t="n">
-        <v>48.29875959390549</v>
+        <v>7.321904494607857</v>
       </c>
       <c r="J61" t="n">
-        <v>81.37599614466865</v>
+        <v>40.399141045371</v>
       </c>
     </row>
     <row r="62">
@@ -2550,10 +2550,10 @@
         <v>46.49364923537973</v>
       </c>
       <c r="I62" t="n">
-        <v>44.95523425784643</v>
+        <v>3.978379158548798</v>
       </c>
       <c r="J62" t="n">
-        <v>51.52519958463694</v>
+        <v>10.54834448533931</v>
       </c>
     </row>
     <row r="63">
@@ -2584,10 +2584,10 @@
         <v>23.44807638087272</v>
       </c>
       <c r="I63" t="n">
-        <v>47.77666089273817</v>
+        <v>6.799805793440534</v>
       </c>
       <c r="J63" t="n">
-        <v>74.57077243914395</v>
+        <v>33.59391733984631</v>
       </c>
     </row>
     <row r="64">
@@ -2618,10 +2618,10 @@
         <v>37.60062151199935</v>
       </c>
       <c r="I64" t="n">
-        <v>46.77789552050105</v>
+        <v>5.801040421203417</v>
       </c>
       <c r="J64" t="n">
-        <v>60.41822730801732</v>
+        <v>19.44137220871968</v>
       </c>
     </row>
     <row r="65">
@@ -2652,10 +2652,10 @@
         <v>28.56597968498584</v>
       </c>
       <c r="I65" t="n">
-        <v>47.55533820561334</v>
+        <v>6.578483106315701</v>
       </c>
       <c r="J65" t="n">
-        <v>69.45286913503082</v>
+        <v>28.47601403573319</v>
       </c>
     </row>
     <row r="66">
@@ -2686,10 +2686,10 @@
         <v>32.37505812971281</v>
       </c>
       <c r="I66" t="n">
-        <v>47.33147072372343</v>
+        <v>6.354615624425797</v>
       </c>
       <c r="J66" t="n">
-        <v>65.64379069030386</v>
+        <v>24.66693559100622</v>
       </c>
     </row>
     <row r="67">
@@ -2720,10 +2720,10 @@
         <v>52.02066109252408</v>
       </c>
       <c r="I67" t="n">
-        <v>43.01073878826992</v>
+        <v>2.033883688972281</v>
       </c>
       <c r="J67" t="n">
-        <v>45.99818772749259</v>
+        <v>5.021332628194955</v>
       </c>
     </row>
     <row r="68">
@@ -2754,10 +2754,10 @@
         <v>33.5753635717458</v>
       </c>
       <c r="I68" t="n">
-        <v>47.47666819458121</v>
+        <v>6.499813095283571</v>
       </c>
       <c r="J68" t="n">
-        <v>64.44348524827087</v>
+        <v>23.46663014897324</v>
       </c>
     </row>
     <row r="69">
@@ -2788,10 +2788,10 @@
         <v>25.58380141768838</v>
       </c>
       <c r="I69" t="n">
-        <v>47.72028147293108</v>
+        <v>6.743426373633447</v>
       </c>
       <c r="J69" t="n">
-        <v>72.43504740232829</v>
+        <v>31.45819230303065</v>
       </c>
     </row>
     <row r="70">
@@ -2822,10 +2822,10 @@
         <v>41.34604292412611</v>
       </c>
       <c r="I70" t="n">
-        <v>45.5947352231594</v>
+        <v>4.617880123861767</v>
       </c>
       <c r="J70" t="n">
-        <v>56.67280589589056</v>
+        <v>15.69595079659292</v>
       </c>
     </row>
     <row r="71">
@@ -2856,10 +2856,10 @@
         <v>53.48152688311743</v>
       </c>
       <c r="I71" t="n">
-        <v>42.14856670331515</v>
+        <v>1.171711604017517</v>
       </c>
       <c r="J71" t="n">
-        <v>44.53732193689924</v>
+        <v>3.560466837601602</v>
       </c>
     </row>
     <row r="72">
@@ -2890,10 +2890,10 @@
         <v>35.5934993960629</v>
       </c>
       <c r="I72" t="n">
-        <v>47.03440752029693</v>
+        <v>6.057552420999293</v>
       </c>
       <c r="J72" t="n">
-        <v>62.42534942395377</v>
+        <v>21.44849432465613</v>
       </c>
     </row>
     <row r="73">
@@ -2924,10 +2924,10 @@
         <v>15.15008185191754</v>
       </c>
       <c r="I73" t="n">
-        <v>48.24441299425879</v>
+        <v>7.267557894961158</v>
       </c>
       <c r="J73" t="n">
-        <v>82.86876696809914</v>
+        <v>41.89191186880149</v>
       </c>
     </row>
     <row r="74">
@@ -2958,10 +2958,10 @@
         <v>24.03091891560656</v>
       </c>
       <c r="I74" t="n">
-        <v>47.53432046458373</v>
+        <v>6.557465365286092</v>
       </c>
       <c r="J74" t="n">
-        <v>73.98792990441011</v>
+        <v>33.01107480511247</v>
       </c>
     </row>
     <row r="75">
@@ -2992,10 +2992,10 @@
         <v>22.28396300099296</v>
       </c>
       <c r="I75" t="n">
-        <v>47.79386977783869</v>
+        <v>6.817014678541057</v>
       </c>
       <c r="J75" t="n">
-        <v>75.73488581902372</v>
+        <v>34.75803071972608</v>
       </c>
     </row>
     <row r="76">
@@ -3026,10 +3026,10 @@
         <v>45.59307661399068</v>
       </c>
       <c r="I76" t="n">
-        <v>45.218098929222</v>
+        <v>4.241243829924365</v>
       </c>
       <c r="J76" t="n">
-        <v>52.42577220602599</v>
+        <v>11.44891710672835</v>
       </c>
     </row>
     <row r="77">
@@ -3060,10 +3060,10 @@
         <v>45.73443431110162</v>
       </c>
       <c r="I77" t="n">
-        <v>45.17695861792217</v>
+        <v>4.200103518624537</v>
       </c>
       <c r="J77" t="n">
-        <v>52.28441450891505</v>
+        <v>11.30755940961741</v>
       </c>
     </row>
     <row r="78">
@@ -3094,10 +3094,10 @@
         <v>21.42991712708602</v>
       </c>
       <c r="I78" t="n">
-        <v>48.39667767507351</v>
+        <v>7.419822575775868</v>
       </c>
       <c r="J78" t="n">
-        <v>76.58893169293066</v>
+        <v>35.61207659363301</v>
       </c>
     </row>
     <row r="79">
@@ -3128,10 +3128,10 @@
         <v>54.1203706499624</v>
       </c>
       <c r="I79" t="n">
-        <v>41.91099843147781</v>
+        <v>0.9341433321801773</v>
       </c>
       <c r="J79" t="n">
-        <v>43.89847817005427</v>
+        <v>2.921623070756631</v>
       </c>
     </row>
     <row r="80">
@@ -3162,10 +3162,10 @@
         <v>49.2782623139927</v>
       </c>
       <c r="I80" t="n">
-        <v>44.61426743746653</v>
+        <v>3.637412338168893</v>
       </c>
       <c r="J80" t="n">
-        <v>48.74058650602397</v>
+        <v>7.763731406726336</v>
       </c>
     </row>
     <row r="81">
@@ -3196,10 +3196,10 @@
         <v>44.23539327719426</v>
       </c>
       <c r="I81" t="n">
-        <v>45.49257186808283</v>
+        <v>4.515716768785197</v>
       </c>
       <c r="J81" t="n">
-        <v>53.78345554282241</v>
+        <v>12.80660044352477</v>
       </c>
     </row>
     <row r="82">
@@ -3230,10 +3230,10 @@
         <v>36.32981874678777</v>
       </c>
       <c r="I82" t="n">
-        <v>46.50362800821502</v>
+        <v>5.526772908917387</v>
       </c>
       <c r="J82" t="n">
-        <v>61.6890300732289</v>
+        <v>20.71217497393126</v>
       </c>
     </row>
     <row r="83">
@@ -3264,10 +3264,10 @@
         <v>27.91422171656769</v>
       </c>
       <c r="I83" t="n">
-        <v>47.81746836721108</v>
+        <v>6.840613267913447</v>
       </c>
       <c r="J83" t="n">
-        <v>70.10462710344899</v>
+        <v>29.12777200415135</v>
       </c>
     </row>
     <row r="84">
@@ -3298,10 +3298,10 @@
         <v>33.6790692512508</v>
       </c>
       <c r="I84" t="n">
-        <v>47.47181479295499</v>
+        <v>6.494959693657357</v>
       </c>
       <c r="J84" t="n">
-        <v>64.33977956876586</v>
+        <v>23.36292446946823</v>
       </c>
     </row>
     <row r="85">
@@ -3332,10 +3332,10 @@
         <v>25.45871279618905</v>
       </c>
       <c r="I85" t="n">
-        <v>47.62247748484034</v>
+        <v>6.645622385542701</v>
       </c>
       <c r="J85" t="n">
-        <v>72.56013602382762</v>
+        <v>31.58328092452998</v>
       </c>
     </row>
     <row r="86">
@@ -3366,10 +3366,10 @@
         <v>52.90793003652733</v>
       </c>
       <c r="I86" t="n">
-        <v>42.38843307210678</v>
+        <v>1.411577972809141</v>
       </c>
       <c r="J86" t="n">
-        <v>45.11091878348934</v>
+        <v>4.134063684191702</v>
       </c>
     </row>
     <row r="87">
@@ -3400,10 +3400,10 @@
         <v>47.744771123593</v>
       </c>
       <c r="I87" t="n">
-        <v>44.85935731373242</v>
+        <v>3.882502214434787</v>
       </c>
       <c r="J87" t="n">
-        <v>50.27407769642367</v>
+        <v>9.297222597126037</v>
       </c>
     </row>
     <row r="88">
@@ -3434,10 +3434,10 @@
         <v>54.83601174477605</v>
       </c>
       <c r="I88" t="n">
-        <v>41.91203044928328</v>
+        <v>0.9351753499856414</v>
       </c>
       <c r="J88" t="n">
-        <v>43.18283707524062</v>
+        <v>2.205981975942983</v>
       </c>
     </row>
     <row r="89">
@@ -3468,10 +3468,10 @@
         <v>40.32069053270197</v>
       </c>
       <c r="I89" t="n">
-        <v>45.97825548933304</v>
+        <v>5.001400390035407</v>
       </c>
       <c r="J89" t="n">
-        <v>57.6981582873147</v>
+        <v>16.72130318801707</v>
       </c>
     </row>
     <row r="90">
@@ -3502,10 +3502,10 @@
         <v>42.95185781811324</v>
       </c>
       <c r="I90" t="n">
-        <v>45.95979218664758</v>
+        <v>4.982937087349946</v>
       </c>
       <c r="J90" t="n">
-        <v>55.06699100190343</v>
+        <v>14.09013590260579</v>
       </c>
     </row>
     <row r="91">
@@ -3536,10 +3536,10 @@
         <v>50.28635088336978</v>
       </c>
       <c r="I91" t="n">
-        <v>44.40510831236351</v>
+        <v>3.428253213065872</v>
       </c>
       <c r="J91" t="n">
-        <v>47.73249793664689</v>
+        <v>6.755642837349257</v>
       </c>
     </row>
     <row r="92">
@@ -3570,10 +3570,10 @@
         <v>51.14490751052708</v>
       </c>
       <c r="I92" t="n">
-        <v>43.11442650743233</v>
+        <v>2.137571408134697</v>
       </c>
       <c r="J92" t="n">
-        <v>46.8739413094896</v>
+        <v>5.897086210191958</v>
       </c>
     </row>
     <row r="93">
@@ -3604,10 +3604,10 @@
         <v>45.3732078070712</v>
       </c>
       <c r="I93" t="n">
-        <v>45.30681124389969</v>
+        <v>4.329956144602058</v>
       </c>
       <c r="J93" t="n">
-        <v>52.64564101294547</v>
+        <v>11.66878591364783</v>
       </c>
     </row>
     <row r="94">
@@ -3638,10 +3638,10 @@
         <v>46.70624180785506</v>
       </c>
       <c r="I94" t="n">
-        <v>44.89214498941656</v>
+        <v>3.915289890118927</v>
       </c>
       <c r="J94" t="n">
-        <v>51.31260701216161</v>
+        <v>10.33575191286398</v>
       </c>
     </row>
     <row r="95">
@@ -3672,10 +3672,10 @@
         <v>49.98820634131714</v>
       </c>
       <c r="I95" t="n">
-        <v>44.08448242795958</v>
+        <v>3.107627328661941</v>
       </c>
       <c r="J95" t="n">
-        <v>48.03064247869953</v>
+        <v>7.053787379401896</v>
       </c>
     </row>
     <row r="96">
@@ -3706,10 +3706,10 @@
         <v>24.64584529791649</v>
       </c>
       <c r="I96" t="n">
-        <v>47.55285194367048</v>
+        <v>6.575996844372845</v>
       </c>
       <c r="J96" t="n">
-        <v>73.37300352210018</v>
+        <v>32.39614842280254</v>
       </c>
     </row>
     <row r="97">
@@ -3740,10 +3740,10 @@
         <v>53.86951322586115</v>
       </c>
       <c r="I97" t="n">
-        <v>42.02208397720659</v>
+        <v>1.045228877908954</v>
       </c>
       <c r="J97" t="n">
-        <v>44.14933559415552</v>
+        <v>3.172480494857886</v>
       </c>
     </row>
     <row r="98">
@@ -3774,10 +3774,10 @@
         <v>49.27136316908135</v>
       </c>
       <c r="I98" t="n">
-        <v>44.17952400877089</v>
+        <v>3.202668909473253</v>
       </c>
       <c r="J98" t="n">
-        <v>48.74748565093532</v>
+        <v>7.770630551637687</v>
       </c>
     </row>
     <row r="99">
@@ -3808,10 +3808,10 @@
         <v>34.19308701212502</v>
       </c>
       <c r="I99" t="n">
-        <v>47.34888552234136</v>
+        <v>6.372030423043718</v>
       </c>
       <c r="J99" t="n">
-        <v>63.82576180789165</v>
+        <v>22.84890670859401</v>
       </c>
     </row>
     <row r="100">
@@ -3842,10 +3842,10 @@
         <v>47.72061031788171</v>
       </c>
       <c r="I100" t="n">
-        <v>45.19114880454634</v>
+        <v>4.214293705248707</v>
       </c>
       <c r="J100" t="n">
-        <v>50.29823850213496</v>
+        <v>9.321383402837327</v>
       </c>
     </row>
     <row r="101">
@@ -3876,10 +3876,10 @@
         <v>38.56044240692709</v>
       </c>
       <c r="I101" t="n">
-        <v>46.38468595654575</v>
+        <v>5.407830857248108</v>
       </c>
       <c r="J101" t="n">
-        <v>59.45840641308958</v>
+        <v>18.48155131379195</v>
       </c>
     </row>
     <row r="102">
@@ -3910,10 +3910,10 @@
         <v>24.82910589470695</v>
       </c>
       <c r="I102" t="n">
-        <v>47.74390044119573</v>
+        <v>6.767045341898097</v>
       </c>
       <c r="J102" t="n">
-        <v>73.18974292530973</v>
+        <v>32.21288782601209</v>
       </c>
     </row>
     <row r="103">
@@ -3944,10 +3944,10 @@
         <v>42.90252747160964</v>
       </c>
       <c r="I103" t="n">
-        <v>46.0395972463987</v>
+        <v>5.062742147101062</v>
       </c>
       <c r="J103" t="n">
-        <v>55.11632134840703</v>
+        <v>14.1394662491094</v>
       </c>
     </row>
     <row r="104">
@@ -3978,10 +3978,10 @@
         <v>48.55208518675315</v>
       </c>
       <c r="I104" t="n">
-        <v>44.07479334213379</v>
+        <v>3.097938242836157</v>
       </c>
       <c r="J104" t="n">
-        <v>49.46676363326352</v>
+        <v>8.489908533965881</v>
       </c>
     </row>
     <row r="105">
@@ -4012,10 +4012,10 @@
         <v>45.72843613724068</v>
       </c>
       <c r="I105" t="n">
-        <v>45.31545150155324</v>
+        <v>4.338596402255604</v>
       </c>
       <c r="J105" t="n">
-        <v>52.29041268277599</v>
+        <v>11.31355758347836</v>
       </c>
     </row>
     <row r="106">
@@ -4046,10 +4046,10 @@
         <v>30.35207387714516</v>
       </c>
       <c r="I106" t="n">
-        <v>47.7930584197367</v>
+        <v>6.816203320439065</v>
       </c>
       <c r="J106" t="n">
-        <v>67.66677494287151</v>
+        <v>26.68991984357388</v>
       </c>
     </row>
     <row r="107">
@@ -4080,10 +4080,10 @@
         <v>51.47419545210434</v>
       </c>
       <c r="I107" t="n">
-        <v>43.10345905412158</v>
+        <v>2.126603954823942</v>
       </c>
       <c r="J107" t="n">
-        <v>46.54465336791233</v>
+        <v>5.567798268614695</v>
       </c>
     </row>
     <row r="108">
@@ -4114,10 +4114,10 @@
         <v>15.83478346676808</v>
       </c>
       <c r="I108" t="n">
-        <v>48.37445606533679</v>
+        <v>7.397600966039157</v>
       </c>
       <c r="J108" t="n">
-        <v>82.1840653532486</v>
+        <v>41.20721025395095</v>
       </c>
     </row>
     <row r="109">
@@ -4148,10 +4148,10 @@
         <v>21.36250577550931</v>
       </c>
       <c r="I109" t="n">
-        <v>47.90657784617893</v>
+        <v>6.929722746881296</v>
       </c>
       <c r="J109" t="n">
-        <v>76.65634304450737</v>
+        <v>35.67948794520973</v>
       </c>
     </row>
     <row r="110">
@@ -4182,10 +4182,10 @@
         <v>38.51841826705797</v>
       </c>
       <c r="I110" t="n">
-        <v>49.82774223170228</v>
+        <v>8.850887132404644</v>
       </c>
       <c r="J110" t="n">
-        <v>59.5004305529587</v>
+        <v>18.52357545366107</v>
       </c>
     </row>
     <row r="111">
@@ -4216,10 +4216,10 @@
         <v>42.64116857398157</v>
       </c>
       <c r="I111" t="n">
-        <v>49.59284288802918</v>
+        <v>8.615987788731545</v>
       </c>
       <c r="J111" t="n">
-        <v>55.3776802460351</v>
+        <v>14.40082514673747</v>
       </c>
     </row>
     <row r="112">
@@ -4250,10 +4250,10 @@
         <v>15.15147129542929</v>
       </c>
       <c r="I112" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J112" t="n">
-        <v>82.86737752458738</v>
+        <v>41.89052242528975</v>
       </c>
     </row>
     <row r="113">
@@ -4284,10 +4284,10 @@
         <v>55.56362866079375</v>
       </c>
       <c r="I113" t="n">
-        <v>42.45522015922292</v>
+        <v>1.478365059925281</v>
       </c>
       <c r="J113" t="n">
-        <v>42.45522015922292</v>
+        <v>1.478365059925281</v>
       </c>
     </row>
     <row r="114">
@@ -4318,10 +4318,10 @@
         <v>41.24543174453633</v>
       </c>
       <c r="I114" t="n">
-        <v>49.56303992358854</v>
+        <v>8.586184824290903</v>
       </c>
       <c r="J114" t="n">
-        <v>56.77341707548034</v>
+        <v>15.7965619761827</v>
       </c>
     </row>
     <row r="115">
@@ -4352,10 +4352,10 @@
         <v>27.58603444772424</v>
       </c>
       <c r="I115" t="n">
-        <v>50.06340862315724</v>
+        <v>9.086553523859607</v>
       </c>
       <c r="J115" t="n">
-        <v>70.43281437229243</v>
+        <v>29.45595927299479</v>
       </c>
     </row>
     <row r="116">
@@ -4386,10 +4386,10 @@
         <v>46.85430727017958</v>
       </c>
       <c r="I116" t="n">
-        <v>46.55724777242372</v>
+        <v>5.580392673126084</v>
       </c>
       <c r="J116" t="n">
-        <v>51.16454154983709</v>
+        <v>10.18768645053945</v>
       </c>
     </row>
     <row r="117">
@@ -4420,10 +4420,10 @@
         <v>48.67688376641412</v>
       </c>
       <c r="I117" t="n">
-        <v>46.56284918896753</v>
+        <v>5.585994089669896</v>
       </c>
       <c r="J117" t="n">
-        <v>49.34196505360255</v>
+        <v>8.365109954304913</v>
       </c>
     </row>
     <row r="118">
@@ -4454,10 +4454,10 @@
         <v>29.75340626735208</v>
       </c>
       <c r="I118" t="n">
-        <v>50.11070317153051</v>
+        <v>9.133848072232873</v>
       </c>
       <c r="J118" t="n">
-        <v>68.2654425526646</v>
+        <v>27.28858745336695</v>
       </c>
     </row>
     <row r="119">
@@ -4488,10 +4488,10 @@
         <v>41.30861682126655</v>
       </c>
       <c r="I119" t="n">
-        <v>49.82774223170228</v>
+        <v>8.850887132404644</v>
       </c>
       <c r="J119" t="n">
-        <v>56.71023199875012</v>
+        <v>15.73337689945249</v>
       </c>
     </row>
     <row r="120">
@@ -4522,10 +4522,10 @@
         <v>41.83011247924359</v>
       </c>
       <c r="I120" t="n">
-        <v>49.32795631712642</v>
+        <v>8.351101217828784</v>
       </c>
       <c r="J120" t="n">
-        <v>56.18873634077308</v>
+        <v>15.21188124147545</v>
       </c>
     </row>
     <row r="121">
@@ -4556,10 +4556,10 @@
         <v>36.6795191571596</v>
       </c>
       <c r="I121" t="n">
-        <v>50.06340862315722</v>
+        <v>9.086553523859585</v>
       </c>
       <c r="J121" t="n">
-        <v>61.33932966285707</v>
+        <v>20.36247456355943</v>
       </c>
     </row>
     <row r="122">
@@ -4590,10 +4590,10 @@
         <v>35.95204038040477</v>
       </c>
       <c r="I122" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J122" t="n">
-        <v>62.0668084396119</v>
+        <v>21.08995334031427</v>
       </c>
     </row>
     <row r="123">
@@ -4624,10 +4624,10 @@
         <v>43.56305066043981</v>
       </c>
       <c r="I123" t="n">
-        <v>49.0940011899652</v>
+        <v>8.117146090667568</v>
       </c>
       <c r="J123" t="n">
-        <v>54.45579815957687</v>
+        <v>13.47894306027923</v>
       </c>
     </row>
     <row r="124">
@@ -4658,10 +4658,10 @@
         <v>15.50416290015999</v>
       </c>
       <c r="I124" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J124" t="n">
-        <v>82.51468591985667</v>
+        <v>41.53783082055904</v>
       </c>
     </row>
     <row r="125">
@@ -4692,10 +4692,10 @@
         <v>23.97734075188783</v>
       </c>
       <c r="I125" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J125" t="n">
-        <v>74.04150806812885</v>
+        <v>33.0646529688312</v>
       </c>
     </row>
     <row r="126">
@@ -4726,10 +4726,10 @@
         <v>39.63449768874139</v>
       </c>
       <c r="I126" t="n">
-        <v>49.82774223170228</v>
+        <v>8.850887132404644</v>
       </c>
       <c r="J126" t="n">
-        <v>58.38435113127528</v>
+        <v>17.40749603197764</v>
       </c>
     </row>
     <row r="127">
@@ -4760,10 +4760,10 @@
         <v>46.56635140909123</v>
       </c>
       <c r="I127" t="n">
-        <v>46.55724777242374</v>
+        <v>5.580392673126106</v>
       </c>
       <c r="J127" t="n">
-        <v>51.45249741092544</v>
+        <v>10.4756423116278</v>
       </c>
     </row>
     <row r="128">
@@ -4794,10 +4794,10 @@
         <v>41.4946300582138</v>
       </c>
       <c r="I128" t="n">
-        <v>49.82774223170227</v>
+        <v>8.850887132404637</v>
       </c>
       <c r="J128" t="n">
-        <v>56.52421876180287</v>
+        <v>15.54736366250523</v>
       </c>
     </row>
     <row r="129">
@@ -4828,10 +4828,10 @@
         <v>45.74792956184479</v>
       </c>
       <c r="I129" t="n">
-        <v>46.79040232646896</v>
+        <v>5.813547227171327</v>
       </c>
       <c r="J129" t="n">
-        <v>52.27091925817188</v>
+        <v>11.29406415887424</v>
       </c>
     </row>
     <row r="130">
@@ -4862,10 +4862,10 @@
         <v>47.73145637703895</v>
       </c>
       <c r="I130" t="n">
-        <v>46.32517815702101</v>
+        <v>5.348323057723377</v>
       </c>
       <c r="J130" t="n">
-        <v>50.28739244297772</v>
+        <v>9.310537343680082</v>
       </c>
     </row>
     <row r="131">
@@ -4896,10 +4896,10 @@
         <v>26.49540103233738</v>
       </c>
       <c r="I131" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J131" t="n">
-        <v>71.52344778767929</v>
+        <v>30.54659268838165</v>
       </c>
     </row>
     <row r="132">
@@ -4930,10 +4930,10 @@
         <v>14.4460880859679</v>
       </c>
       <c r="I132" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J132" t="n">
-        <v>83.57276073404877</v>
+        <v>42.59590563475113</v>
       </c>
     </row>
     <row r="133">
@@ -4964,10 +4964,10 @@
         <v>26.85512392954446</v>
       </c>
       <c r="I133" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J133" t="n">
-        <v>71.16372489047221</v>
+        <v>30.18686979117457</v>
       </c>
     </row>
     <row r="134">
@@ -4998,10 +4998,10 @@
         <v>48.0362420913433</v>
       </c>
       <c r="I134" t="n">
-        <v>46.32517815702102</v>
+        <v>5.348323057723384</v>
       </c>
       <c r="J134" t="n">
-        <v>49.98260672867337</v>
+        <v>9.005751629375737</v>
       </c>
     </row>
     <row r="135">
@@ -5032,10 +5032,10 @@
         <v>45.19987786867449</v>
       </c>
       <c r="I135" t="n">
-        <v>46.79040232646896</v>
+        <v>5.813547227171327</v>
       </c>
       <c r="J135" t="n">
-        <v>52.81897095134218</v>
+        <v>11.84211585204454</v>
       </c>
     </row>
     <row r="136">
@@ -5066,10 +5066,10 @@
         <v>15.85685450489068</v>
       </c>
       <c r="I136" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J136" t="n">
-        <v>82.16199431512599</v>
+        <v>41.18513921582836</v>
       </c>
     </row>
     <row r="137">
@@ -5100,10 +5100,10 @@
         <v>20.06822994370542</v>
       </c>
       <c r="I137" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J137" t="n">
-        <v>77.95061887631125</v>
+        <v>36.97376377701362</v>
       </c>
     </row>
     <row r="138">
@@ -5134,10 +5134,10 @@
         <v>30.85968894312098</v>
       </c>
       <c r="I138" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J138" t="n">
-        <v>67.1591598768957</v>
+        <v>26.18230477759806</v>
       </c>
     </row>
     <row r="139">
@@ -5168,10 +5168,10 @@
         <v>37.774365319269</v>
       </c>
       <c r="I139" t="n">
-        <v>49.82774223170228</v>
+        <v>8.850887132404644</v>
       </c>
       <c r="J139" t="n">
-        <v>60.24448350074767</v>
+        <v>19.26762840145003</v>
       </c>
     </row>
     <row r="140">
@@ -5202,10 +5202,10 @@
         <v>23.61761785468074</v>
       </c>
       <c r="I140" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J140" t="n">
-        <v>74.40123096533593</v>
+        <v>33.42437586603829</v>
       </c>
     </row>
     <row r="141">
@@ -5236,10 +5236,10 @@
         <v>38.89044474095245</v>
       </c>
       <c r="I141" t="n">
-        <v>49.82774223170227</v>
+        <v>8.850887132404637</v>
       </c>
       <c r="J141" t="n">
-        <v>59.12840407906423</v>
+        <v>18.15154897976659</v>
       </c>
     </row>
     <row r="142">
@@ -5270,10 +5270,10 @@
         <v>43.76822447239316</v>
       </c>
       <c r="I142" t="n">
-        <v>49.35912979423035</v>
+        <v>8.382274694932711</v>
       </c>
       <c r="J142" t="n">
-        <v>54.25062434762351</v>
+        <v>13.27376924832588</v>
       </c>
     </row>
     <row r="143">
@@ -5304,10 +5304,10 @@
         <v>31.22342833149839</v>
       </c>
       <c r="I143" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J143" t="n">
-        <v>66.79542048851829</v>
+        <v>25.81856538922064</v>
       </c>
     </row>
     <row r="144">
@@ -5338,10 +5338,10 @@
         <v>29.04099200123391</v>
       </c>
       <c r="I144" t="n">
-        <v>50.06340862315722</v>
+        <v>9.086553523859585</v>
       </c>
       <c r="J144" t="n">
-        <v>68.97785681878275</v>
+        <v>28.00100171948512</v>
       </c>
     </row>
     <row r="145">
@@ -5372,10 +5372,10 @@
         <v>34.86082221527253</v>
       </c>
       <c r="I145" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J145" t="n">
-        <v>63.15802660474414</v>
+        <v>22.18117150544651</v>
       </c>
     </row>
     <row r="146">
@@ -5406,10 +5406,10 @@
         <v>13.03532166704511</v>
       </c>
       <c r="I146" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J146" t="n">
-        <v>84.98352715297156</v>
+        <v>44.00667205367392</v>
       </c>
     </row>
     <row r="147">
@@ -5440,10 +5440,10 @@
         <v>36.31577976878219</v>
       </c>
       <c r="I147" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J147" t="n">
-        <v>61.70306905123448</v>
+        <v>20.72621395193684</v>
       </c>
     </row>
     <row r="148">
@@ -5474,10 +5474,10 @@
         <v>27.94977383610166</v>
       </c>
       <c r="I148" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J148" t="n">
-        <v>70.06907498391502</v>
+        <v>29.09221988461737</v>
       </c>
     </row>
     <row r="149">
@@ -5508,10 +5508,10 @@
         <v>29.38373266834506</v>
       </c>
       <c r="I149" t="n">
-        <v>50.13434913638092</v>
+        <v>9.157494037083282</v>
       </c>
       <c r="J149" t="n">
-        <v>68.63511615167161</v>
+        <v>27.65826105237397</v>
       </c>
     </row>
     <row r="150">
@@ -5542,10 +5542,10 @@
         <v>24.3370636490949</v>
       </c>
       <c r="I150" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J150" t="n">
-        <v>73.68178517092177</v>
+        <v>32.70493007162413</v>
       </c>
     </row>
     <row r="151">
@@ -5576,10 +5576,10 @@
         <v>35.17018000200767</v>
       </c>
       <c r="I151" t="n">
-        <v>49.82774223170227</v>
+        <v>8.850887132404637</v>
       </c>
       <c r="J151" t="n">
-        <v>62.848668818009</v>
+        <v>21.87181371871137</v>
       </c>
     </row>
     <row r="152">
@@ -5610,10 +5610,10 @@
         <v>37.04325854553704</v>
       </c>
       <c r="I152" t="n">
-        <v>50.06340862315721</v>
+        <v>9.086553523859571</v>
       </c>
       <c r="J152" t="n">
-        <v>60.97559027447963</v>
+        <v>19.99873517518199</v>
       </c>
     </row>
     <row r="153">
@@ -5644,10 +5644,10 @@
         <v>54.23809535246428</v>
       </c>
       <c r="I153" t="n">
-        <v>42.67950607966905</v>
+        <v>1.702650980371416</v>
       </c>
       <c r="J153" t="n">
-        <v>43.78075346755239</v>
+        <v>2.803898368254757</v>
       </c>
     </row>
     <row r="154">
@@ -5678,10 +5678,10 @@
         <v>40.86593821022625</v>
       </c>
       <c r="I154" t="n">
-        <v>49.56303992358852</v>
+        <v>8.586184824290882</v>
       </c>
       <c r="J154" t="n">
-        <v>57.15291060979042</v>
+        <v>16.17605551049279</v>
       </c>
     </row>
     <row r="155">
@@ -5712,10 +5712,10 @@
         <v>20.42426289380429</v>
       </c>
       <c r="I155" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J155" t="n">
-        <v>77.59458592621237</v>
+        <v>36.61773082691474</v>
       </c>
     </row>
     <row r="156">
@@ -5746,10 +5746,10 @@
         <v>43.21965230978216</v>
       </c>
       <c r="I156" t="n">
-        <v>49.59284288802919</v>
+        <v>8.615987788731552</v>
       </c>
       <c r="J156" t="n">
-        <v>54.79919651023451</v>
+        <v>13.82234141093687</v>
       </c>
     </row>
     <row r="157">
@@ -5780,10 +5780,10 @@
         <v>49.56100128977421</v>
       </c>
       <c r="I157" t="n">
-        <v>46.09711797811202</v>
+        <v>5.120262878814387</v>
       </c>
       <c r="J157" t="n">
-        <v>48.45784753024246</v>
+        <v>7.480992430944823</v>
       </c>
     </row>
     <row r="158">
@@ -5814,10 +5814,10 @@
         <v>18.64409814330992</v>
       </c>
       <c r="I158" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J158" t="n">
-        <v>79.37475067670675</v>
+        <v>38.39789557740912</v>
       </c>
     </row>
     <row r="159">
@@ -5848,10 +5848,10 @@
         <v>40.48644467591615</v>
       </c>
       <c r="I159" t="n">
-        <v>49.56303992358854</v>
+        <v>8.586184824290903</v>
       </c>
       <c r="J159" t="n">
-        <v>57.53240414410052</v>
+        <v>16.55554904480289</v>
       </c>
     </row>
     <row r="160">
@@ -5882,10 +5882,10 @@
         <v>16.56223771435208</v>
       </c>
       <c r="I160" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J160" t="n">
-        <v>81.45661110566459</v>
+        <v>40.47975600636696</v>
       </c>
     </row>
     <row r="161">
@@ -5916,10 +5916,10 @@
         <v>13.7407048765065</v>
       </c>
       <c r="I161" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J161" t="n">
-        <v>84.27814394351017</v>
+        <v>43.30128884421254</v>
       </c>
     </row>
     <row r="162">
@@ -5950,10 +5950,10 @@
         <v>28.65284669277045</v>
       </c>
       <c r="I162" t="n">
-        <v>50.15799401417261</v>
+        <v>9.181138914874971</v>
       </c>
       <c r="J162" t="n">
-        <v>69.36600212724622</v>
+        <v>28.38914702794859</v>
       </c>
     </row>
     <row r="163">
@@ -5984,10 +5984,10 @@
         <v>14.09339648123722</v>
       </c>
       <c r="I163" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J163" t="n">
-        <v>83.92545233877945</v>
+        <v>42.94859723948181</v>
       </c>
     </row>
     <row r="164">
@@ -6018,10 +6018,10 @@
         <v>21.13632879400204</v>
       </c>
       <c r="I164" t="n">
-        <v>50.53608171869804</v>
+        <v>9.559226619400405</v>
       </c>
       <c r="J164" t="n">
-        <v>76.88252002601463</v>
+        <v>35.90566492671699</v>
       </c>
     </row>
     <row r="165">
@@ -6052,10 +6052,10 @@
         <v>34.4970828268951</v>
       </c>
       <c r="I165" t="n">
-        <v>50.06340862315724</v>
+        <v>9.086553523859607</v>
       </c>
       <c r="J165" t="n">
-        <v>63.52176599312157</v>
+        <v>22.54491089382393</v>
       </c>
     </row>
     <row r="166">
@@ -6086,10 +6086,10 @@
         <v>26.13567813513029</v>
       </c>
       <c r="I166" t="n">
-        <v>50.29979685246166</v>
+        <v>9.322941753164024</v>
       </c>
       <c r="J166" t="n">
-        <v>71.88317068488638</v>
+        <v>30.90631558558874</v>
       </c>
     </row>
     <row r="167">
@@ -6120,10 +6120,10 @@
         <v>16.91492931908277</v>
       </c>
       <c r="I167" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J167" t="n">
-        <v>81.1039195009339</v>
+        <v>40.12706440163626</v>
       </c>
     </row>
     <row r="168">
@@ -6154,10 +6154,10 @@
         <v>30.09263000440817</v>
       </c>
       <c r="I168" t="n">
-        <v>50.29979685246165</v>
+        <v>9.322941753164017</v>
       </c>
       <c r="J168" t="n">
-        <v>67.92621881560851</v>
+        <v>26.94936371631086</v>
       </c>
     </row>
     <row r="169">
@@ -6188,10 +6188,10 @@
         <v>49.25538494856075</v>
       </c>
       <c r="I169" t="n">
-        <v>46.32517815702102</v>
+        <v>5.348323057723384</v>
       </c>
       <c r="J169" t="n">
-        <v>48.76346387145592</v>
+        <v>7.786608772158282</v>
       </c>
     </row>
     <row r="170">
@@ -6222,10 +6222,10 @@
         <v>30.49594955474357</v>
       </c>
       <c r="I170" t="n">
-        <v>50.06340862315722</v>
+        <v>9.086553523859585</v>
       </c>
       <c r="J170" t="n">
-        <v>67.5228992652731</v>
+        <v>26.54604416597546</v>
       </c>
     </row>
     <row r="171">
@@ -6256,10 +6256,10 @@
         <v>23.27252649459528</v>
       </c>
       <c r="I171" t="n">
-        <v>50.53608171869804</v>
+        <v>9.559226619400405</v>
       </c>
       <c r="J171" t="n">
-        <v>74.74632232542139</v>
+        <v>33.76946722612375</v>
       </c>
     </row>
     <row r="172">
@@ -6290,10 +6290,10 @@
         <v>38.14639179316348</v>
       </c>
       <c r="I172" t="n">
-        <v>49.82774223170228</v>
+        <v>8.850887132404644</v>
       </c>
       <c r="J172" t="n">
-        <v>59.87245702685319</v>
+        <v>18.89560192755555</v>
       </c>
     </row>
     <row r="173">
@@ -6324,10 +6324,10 @@
         <v>50.37749458001547</v>
       </c>
       <c r="I173" t="n">
-        <v>45.61444181186807</v>
+        <v>4.637586712570432</v>
       </c>
       <c r="J173" t="n">
-        <v>47.6413542400012</v>
+        <v>6.664499140703562</v>
       </c>
     </row>
     <row r="174">
@@ -6358,10 +6358,10 @@
         <v>12.68263006231441</v>
       </c>
       <c r="I174" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J174" t="n">
-        <v>85.33621875770226</v>
+        <v>44.35936365840463</v>
       </c>
     </row>
     <row r="175">
@@ -6392,10 +6392,10 @@
         <v>19.71219699360654</v>
       </c>
       <c r="I175" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J175" t="n">
-        <v>78.30665182641013</v>
+        <v>37.32979672711249</v>
       </c>
     </row>
     <row r="176">
@@ -6426,10 +6426,10 @@
         <v>42.22215705202338</v>
       </c>
       <c r="I176" t="n">
-        <v>49.32795631712644</v>
+        <v>8.351101217828806</v>
       </c>
       <c r="J176" t="n">
-        <v>55.79669176799329</v>
+        <v>14.81983666869566</v>
       </c>
     </row>
     <row r="177">
@@ -6460,10 +6460,10 @@
         <v>42.4181793384133</v>
       </c>
       <c r="I177" t="n">
-        <v>49.32795631712643</v>
+        <v>8.351101217828791</v>
       </c>
       <c r="J177" t="n">
-        <v>55.60066948160337</v>
+        <v>14.62381438230573</v>
       </c>
     </row>
     <row r="178">
@@ -6494,10 +6494,10 @@
         <v>18.28806519321105</v>
       </c>
       <c r="I178" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J178" t="n">
-        <v>79.73078362680562</v>
+        <v>38.75392852750798</v>
       </c>
     </row>
     <row r="179">
@@ -6528,10 +6528,10 @@
         <v>50.95096902961772</v>
       </c>
       <c r="I179" t="n">
-        <v>45.02789179669485</v>
+        <v>4.051036697397215</v>
       </c>
       <c r="J179" t="n">
-        <v>47.06787979039895</v>
+        <v>6.091024691101318</v>
       </c>
     </row>
     <row r="180">
@@ -6562,10 +6562,10 @@
         <v>14.79877969069858</v>
       </c>
       <c r="I180" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J180" t="n">
-        <v>83.22006912931809</v>
+        <v>42.24321403002045</v>
       </c>
     </row>
     <row r="181">
@@ -6596,10 +6596,10 @@
         <v>41.0556849773813</v>
       </c>
       <c r="I181" t="n">
-        <v>49.56303992358852</v>
+        <v>8.586184824290882</v>
       </c>
       <c r="J181" t="n">
-        <v>56.96316384263537</v>
+        <v>15.98630874333774</v>
       </c>
     </row>
     <row r="182">
@@ -6630,10 +6630,10 @@
         <v>24.69678654630199</v>
       </c>
       <c r="I182" t="n">
-        <v>50.29979685246165</v>
+        <v>9.322941753164017</v>
       </c>
       <c r="J182" t="n">
-        <v>73.32206227371468</v>
+        <v>32.34520717441704</v>
       </c>
     </row>
     <row r="183">
@@ -6664,10 +6664,10 @@
         <v>31.58716771987581</v>
       </c>
       <c r="I183" t="n">
-        <v>50.06340862315722</v>
+        <v>9.086553523859585</v>
       </c>
       <c r="J183" t="n">
-        <v>66.43168110014086</v>
+        <v>25.45482600084322</v>
       </c>
     </row>
     <row r="184">
@@ -6698,10 +6698,10 @@
         <v>12.32993845758372</v>
       </c>
       <c r="I184" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J184" t="n">
-        <v>85.68891036243295</v>
+        <v>44.71205526313531</v>
       </c>
     </row>
     <row r="185">
@@ -6732,10 +6732,10 @@
         <v>17.97300413327486</v>
       </c>
       <c r="I185" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J185" t="n">
-        <v>80.04584468674182</v>
+        <v>39.06898958744418</v>
       </c>
     </row>
     <row r="186">
@@ -6766,10 +6766,10 @@
         <v>50.01540201465294</v>
       </c>
       <c r="I186" t="n">
-        <v>45.83931276497511</v>
+        <v>4.862457665677468</v>
       </c>
       <c r="J186" t="n">
-        <v>48.00344680536373</v>
+        <v>7.026591706066093</v>
       </c>
     </row>
     <row r="187">
@@ -6800,10 +6800,10 @@
         <v>43.97203674545123</v>
       </c>
       <c r="I187" t="n">
-        <v>49.35912979423034</v>
+        <v>8.382274694932704</v>
       </c>
       <c r="J187" t="n">
-        <v>54.04681207456544</v>
+        <v>13.06995697526781</v>
       </c>
     </row>
     <row r="188">
@@ -6834,10 +6834,10 @@
         <v>53.19092409316546</v>
       </c>
       <c r="I188" t="n">
-        <v>42.7585578014848</v>
+        <v>1.781702702187161</v>
       </c>
       <c r="J188" t="n">
-        <v>44.82792472685122</v>
+        <v>3.851069627553578</v>
       </c>
     </row>
     <row r="189">
@@ -6868,10 +6868,10 @@
         <v>37.40699793391442</v>
       </c>
       <c r="I189" t="n">
-        <v>50.06340862315724</v>
+        <v>9.086553523859607</v>
       </c>
       <c r="J189" t="n">
-        <v>60.61185088610225</v>
+        <v>19.63499578680462</v>
       </c>
     </row>
     <row r="190">
@@ -6902,10 +6902,10 @@
         <v>39.34796407298585</v>
       </c>
       <c r="I190" t="n">
-        <v>49.56303992358855</v>
+        <v>8.586184824290918</v>
       </c>
       <c r="J190" t="n">
-        <v>58.67088474703082</v>
+        <v>17.69402964773318</v>
       </c>
     </row>
     <row r="191">
@@ -6936,10 +6936,10 @@
         <v>42.0261347656335</v>
       </c>
       <c r="I191" t="n">
-        <v>49.32795631712642</v>
+        <v>8.351101217828784</v>
       </c>
       <c r="J191" t="n">
-        <v>55.99271405438317</v>
+        <v>15.01585895508553</v>
       </c>
     </row>
     <row r="192">
@@ -6970,10 +6970,10 @@
         <v>43.02682439784864</v>
       </c>
       <c r="I192" t="n">
-        <v>49.59284288802918</v>
+        <v>8.615987788731545</v>
       </c>
       <c r="J192" t="n">
-        <v>54.99202442216803</v>
+        <v>14.01516932287039</v>
       </c>
     </row>
     <row r="193">
@@ -7004,10 +7004,10 @@
         <v>47.43021899235622</v>
       </c>
       <c r="I193" t="n">
-        <v>46.55724777242376</v>
+        <v>5.580392673126127</v>
       </c>
       <c r="J193" t="n">
-        <v>50.58862982766045</v>
+        <v>9.611774728362818</v>
       </c>
     </row>
     <row r="194">
@@ -7038,10 +7038,10 @@
         <v>22.20530339004322</v>
       </c>
       <c r="I194" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J194" t="n">
-        <v>75.81354542997346</v>
+        <v>34.83669033067581</v>
       </c>
     </row>
     <row r="195">
@@ -7072,10 +7072,10 @@
         <v>51.21985158997428</v>
       </c>
       <c r="I195" t="n">
-        <v>42.97499152122245</v>
+        <v>1.998136421924812</v>
       </c>
       <c r="J195" t="n">
-        <v>46.79899723004239</v>
+        <v>5.822142130744751</v>
       </c>
     </row>
     <row r="196">
@@ -7106,10 +7106,10 @@
         <v>46.27839554800289</v>
       </c>
       <c r="I196" t="n">
-        <v>46.55724777242374</v>
+        <v>5.580392673126106</v>
       </c>
       <c r="J196" t="n">
-        <v>51.74045327201378</v>
+        <v>10.76359817271614</v>
       </c>
     </row>
     <row r="197">
@@ -7140,10 +7140,10 @@
         <v>31.95090710825323</v>
       </c>
       <c r="I197" t="n">
-        <v>50.06340862315722</v>
+        <v>9.086553523859585</v>
       </c>
       <c r="J197" t="n">
-        <v>66.06794171176344</v>
+        <v>25.0910866124658</v>
       </c>
     </row>
     <row r="198">
@@ -7174,10 +7174,10 @@
         <v>43.7692736208095</v>
       </c>
       <c r="I198" t="n">
-        <v>49.09400118996518</v>
+        <v>8.117146090667546</v>
       </c>
       <c r="J198" t="n">
-        <v>54.24957519920717</v>
+        <v>13.27272009990953</v>
       </c>
     </row>
     <row r="199">
@@ -7208,10 +7208,10 @@
         <v>35.58830099202736</v>
       </c>
       <c r="I199" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J199" t="n">
-        <v>62.43054782798932</v>
+        <v>21.45369272869168</v>
       </c>
     </row>
     <row r="200">
@@ -7242,10 +7242,10 @@
         <v>22.56046059439753</v>
       </c>
       <c r="I200" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J200" t="n">
-        <v>75.45838822561915</v>
+        <v>34.48153312632151</v>
       </c>
     </row>
     <row r="201">
@@ -7276,10 +7276,10 @@
         <v>16.20954610962137</v>
       </c>
       <c r="I201" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J201" t="n">
-        <v>81.8093027103953</v>
+        <v>40.83244761109766</v>
       </c>
     </row>
     <row r="202">
@@ -7310,10 +7310,10 @@
         <v>17.62031252854416</v>
       </c>
       <c r="I202" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J202" t="n">
-        <v>80.39853629147251</v>
+        <v>39.42168119217487</v>
       </c>
     </row>
     <row r="203">
@@ -7344,10 +7344,10 @@
         <v>40.10695114160604</v>
       </c>
       <c r="I203" t="n">
-        <v>49.56303992358855</v>
+        <v>8.586184824290918</v>
       </c>
       <c r="J203" t="n">
-        <v>57.91189767841063</v>
+        <v>16.935042579113</v>
       </c>
     </row>
     <row r="204">
@@ -7378,10 +7378,10 @@
         <v>45.47390371525964</v>
       </c>
       <c r="I204" t="n">
-        <v>46.79040232646897</v>
+        <v>5.813547227171334</v>
       </c>
       <c r="J204" t="n">
-        <v>52.54494510475703</v>
+        <v>11.5680900054594</v>
       </c>
     </row>
     <row r="205">
@@ -7412,10 +7412,10 @@
         <v>27.22229505934684</v>
       </c>
       <c r="I205" t="n">
-        <v>50.06340862315723</v>
+        <v>9.086553523859592</v>
       </c>
       <c r="J205" t="n">
-        <v>70.79655376066984</v>
+        <v>29.81969866137219</v>
       </c>
     </row>
     <row r="206">
@@ -7446,10 +7446,10 @@
         <v>48.58204243670955</v>
       </c>
       <c r="I206" t="n">
-        <v>46.55724777242377</v>
+        <v>5.580392673126134</v>
       </c>
       <c r="J206" t="n">
-        <v>49.43680638330712</v>
+        <v>8.459951284009485</v>
       </c>
     </row>
     <row r="207">
@@ -7480,10 +7480,10 @@
         <v>13.3880132717758</v>
       </c>
       <c r="I207" t="n">
-        <v>50.77244149409402</v>
+        <v>9.795586394796388</v>
       </c>
       <c r="J207" t="n">
-        <v>84.63083554824087</v>
+        <v>43.65398044894324</v>
       </c>
     </row>
     <row r="208">
@@ -7514,10 +7514,10 @@
         <v>19.0001310934088</v>
       </c>
       <c r="I208" t="n">
-        <v>50.53608171869805</v>
+        <v>9.559226619400413</v>
       </c>
       <c r="J208" t="n">
-        <v>79.01871772660787</v>
+        <v>38.04186262731024</v>
       </c>
     </row>
     <row r="209">
@@ -7548,10 +7548,10 @@
         <v>37.97586726418731</v>
       </c>
       <c r="I209" t="n">
-        <v>49.48328474728566</v>
+        <v>8.506429647988021</v>
       </c>
       <c r="J209" t="n">
-        <v>60.04298155582936</v>
+        <v>19.06612645653173</v>
       </c>
     </row>
     <row r="210">
@@ -7582,10 +7582,10 @@
         <v>42.80871754402914</v>
       </c>
       <c r="I210" t="n">
-        <v>49.05629766560664</v>
+        <v>8.079442566309005</v>
       </c>
       <c r="J210" t="n">
-        <v>55.21013127598753</v>
+        <v>14.23327617668989</v>
       </c>
     </row>
     <row r="211">
@@ -7616,10 +7616,10 @@
         <v>14.88259598114828</v>
       </c>
       <c r="I211" t="n">
-        <v>52.07975109447837</v>
+        <v>11.10289599518073</v>
       </c>
       <c r="J211" t="n">
-        <v>83.13625283886839</v>
+        <v>42.15939773957076</v>
       </c>
     </row>
     <row r="212">
@@ -7650,10 +7650,10 @@
         <v>54.99319449622398</v>
       </c>
       <c r="I212" t="n">
-        <v>43.02565432379269</v>
+        <v>2.048799224495056</v>
       </c>
       <c r="J212" t="n">
-        <v>43.02565432379269</v>
+        <v>2.048799224495056</v>
       </c>
     </row>
     <row r="213">
@@ -7684,10 +7684,10 @@
         <v>40.87444762426763</v>
       </c>
       <c r="I213" t="n">
-        <v>49.52257920659189</v>
+        <v>8.545724107294255</v>
       </c>
       <c r="J213" t="n">
-        <v>57.14440119574904</v>
+        <v>16.1675460964514</v>
       </c>
     </row>
     <row r="214">
@@ -7718,10 +7718,10 @@
         <v>28.57033008731397</v>
       </c>
       <c r="I214" t="n">
-        <v>49.39713164034207</v>
+        <v>8.420276541044437</v>
       </c>
       <c r="J214" t="n">
-        <v>69.44851873270269</v>
+        <v>28.47166363340506</v>
       </c>
     </row>
     <row r="215">
@@ -7752,10 +7752,10 @@
         <v>46.56523672536221</v>
       </c>
       <c r="I215" t="n">
-        <v>47.84615399411635</v>
+        <v>6.869298894818712</v>
       </c>
       <c r="J215" t="n">
-        <v>51.45361209465446</v>
+        <v>10.47675699535682</v>
       </c>
     </row>
     <row r="216">
@@ -7786,10 +7786,10 @@
         <v>49.4275562698847</v>
       </c>
       <c r="I216" t="n">
-        <v>45.67835417257263</v>
+        <v>4.701499073274995</v>
       </c>
       <c r="J216" t="n">
-        <v>48.59129255013197</v>
+        <v>7.614437450834338</v>
       </c>
     </row>
     <row r="217">
@@ -7820,10 +7820,10 @@
         <v>30.67924876171534</v>
       </c>
       <c r="I217" t="n">
-        <v>49.31827112799839</v>
+        <v>8.341416028700756</v>
       </c>
       <c r="J217" t="n">
-        <v>67.33960005830133</v>
+        <v>26.3627449590037</v>
       </c>
     </row>
     <row r="218">
@@ -7854,10 +7854,10 @@
         <v>41.13988664055415</v>
       </c>
       <c r="I218" t="n">
-        <v>49.44366846994484</v>
+        <v>8.466813370647202</v>
       </c>
       <c r="J218" t="n">
-        <v>56.87896217946252</v>
+        <v>15.90210708016488</v>
       </c>
     </row>
     <row r="219">
@@ -7888,10 +7888,10 @@
         <v>41.5417944086362</v>
       </c>
       <c r="I219" t="n">
-        <v>49.44366846994483</v>
+        <v>8.466813370647195</v>
       </c>
       <c r="J219" t="n">
-        <v>56.47705441138047</v>
+        <v>15.50019931208283</v>
       </c>
     </row>
     <row r="220">
@@ -7922,10 +7922,10 @@
         <v>35.87184557717082</v>
       </c>
       <c r="I220" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J220" t="n">
-        <v>62.14700324284586</v>
+        <v>21.17014814354822</v>
       </c>
     </row>
     <row r="221">
@@ -7956,10 +7956,10 @@
         <v>35.07729347974602</v>
       </c>
       <c r="I221" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J221" t="n">
-        <v>62.94155534027065</v>
+        <v>21.96470024097302</v>
       </c>
     </row>
     <row r="222">
@@ -7990,10 +7990,10 @@
         <v>43.62922869207993</v>
       </c>
       <c r="I222" t="n">
-        <v>49.05629766560663</v>
+        <v>8.079442566308991</v>
       </c>
       <c r="J222" t="n">
-        <v>54.38962012793674</v>
+        <v>13.41276502863911</v>
       </c>
     </row>
     <row r="223">
@@ -8024,10 +8024,10 @@
         <v>15.24608253600884</v>
       </c>
       <c r="I223" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J223" t="n">
-        <v>82.77276628400783</v>
+        <v>41.79591118471019</v>
       </c>
     </row>
     <row r="224">
@@ -8058,10 +8058,10 @@
         <v>24.89159477688532</v>
       </c>
       <c r="I224" t="n">
-        <v>50.27293259895585</v>
+        <v>9.296077499658217</v>
       </c>
       <c r="J224" t="n">
-        <v>73.12725404313136</v>
+        <v>32.15039894383371</v>
       </c>
     </row>
     <row r="225">
@@ -8092,10 +8092,10 @@
         <v>29.28645105489826</v>
       </c>
       <c r="I225" t="n">
-        <v>49.39713164034208</v>
+        <v>8.420276541044444</v>
       </c>
       <c r="J225" t="n">
-        <v>68.73239776511841</v>
+        <v>27.75554266582077</v>
       </c>
     </row>
     <row r="226">
@@ -8126,10 +8126,10 @@
         <v>39.26985352128715</v>
       </c>
       <c r="I226" t="n">
-        <v>49.52257920659191</v>
+        <v>8.545724107294276</v>
       </c>
       <c r="J226" t="n">
-        <v>58.74899529872952</v>
+        <v>17.77214019943188</v>
       </c>
     </row>
     <row r="227">
@@ -8160,10 +8160,10 @@
         <v>46.3397705940786</v>
       </c>
       <c r="I227" t="n">
-        <v>47.84615399411634</v>
+        <v>6.869298894818705</v>
       </c>
       <c r="J227" t="n">
-        <v>51.67907822593807</v>
+        <v>10.70222312664043</v>
       </c>
     </row>
     <row r="228">
@@ -8194,10 +8194,10 @@
         <v>41.34084052459517</v>
       </c>
       <c r="I228" t="n">
-        <v>49.44366846994484</v>
+        <v>8.466813370647202</v>
       </c>
       <c r="J228" t="n">
-        <v>56.6780082954215</v>
+        <v>15.70115319612386</v>
       </c>
     </row>
     <row r="229">
@@ -8228,10 +8228,10 @@
         <v>45.11251769082114</v>
       </c>
       <c r="I229" t="n">
-        <v>48.73632403811754</v>
+        <v>7.759468938819907</v>
       </c>
       <c r="J229" t="n">
-        <v>52.90633112919553</v>
+        <v>11.92947602989789</v>
       </c>
     </row>
     <row r="230">
@@ -8262,10 +8262,10 @@
         <v>47.44275242040312</v>
       </c>
       <c r="I230" t="n">
-        <v>47.1000596214399</v>
+        <v>6.123204522142267</v>
       </c>
       <c r="J230" t="n">
-        <v>50.57609639961355</v>
+        <v>9.599241300315917</v>
       </c>
     </row>
     <row r="231">
@@ -8296,10 +8296,10 @@
         <v>27.30401089394193</v>
       </c>
       <c r="I231" t="n">
-        <v>49.72126354636882</v>
+        <v>8.744408447071187</v>
       </c>
       <c r="J231" t="n">
-        <v>70.71483792607475</v>
+        <v>29.73798282677711</v>
       </c>
     </row>
     <row r="232">
@@ -8330,10 +8330,10 @@
         <v>14.20599055114687</v>
       </c>
       <c r="I232" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J232" t="n">
-        <v>83.8128582688698</v>
+        <v>42.83600316957217</v>
       </c>
     </row>
     <row r="233">
@@ -8364,10 +8364,10 @@
         <v>27.85420911972966</v>
       </c>
       <c r="I233" t="n">
-        <v>49.39713164034207</v>
+        <v>8.420276541044437</v>
       </c>
       <c r="J233" t="n">
-        <v>70.16463970028701</v>
+        <v>29.18778460098937</v>
       </c>
     </row>
     <row r="234">
@@ -8398,10 +8398,10 @@
         <v>44.69551698171335</v>
       </c>
       <c r="I234" t="n">
-        <v>48.73632403811753</v>
+        <v>7.759468938819893</v>
       </c>
       <c r="J234" t="n">
-        <v>53.32333183830333</v>
+        <v>12.34647673900569</v>
       </c>
     </row>
     <row r="235">
@@ -8432,10 +8432,10 @@
         <v>15.56515645904695</v>
       </c>
       <c r="I235" t="n">
-        <v>52.07975109447838</v>
+        <v>11.10289599518075</v>
       </c>
       <c r="J235" t="n">
-        <v>82.45369236096973</v>
+        <v>41.47683726167209</v>
       </c>
     </row>
     <row r="236">
@@ -8466,10 +8466,10 @@
         <v>19.63593669883016</v>
       </c>
       <c r="I236" t="n">
-        <v>51.4449516430996</v>
+        <v>10.46809654380196</v>
       </c>
       <c r="J236" t="n">
-        <v>78.38291212118651</v>
+        <v>37.40605702188887</v>
       </c>
     </row>
     <row r="237">
@@ -8500,10 +8500,10 @@
         <v>31.80490439219657</v>
       </c>
       <c r="I237" t="n">
-        <v>49.47596630037042</v>
+        <v>8.499111201072786</v>
       </c>
       <c r="J237" t="n">
-        <v>66.21394442782011</v>
+        <v>25.23708932852247</v>
       </c>
     </row>
     <row r="238">
@@ -8534,10 +8534,10 @@
         <v>37.06367372330801</v>
       </c>
       <c r="I238" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J238" t="n">
-        <v>60.95517509670866</v>
+        <v>19.97831999741103</v>
       </c>
     </row>
     <row r="239">
@@ -8568,10 +8568,10 @@
         <v>24.44268195979963</v>
       </c>
       <c r="I239" t="n">
-        <v>50.59319711375012</v>
+        <v>9.616342014452478</v>
       </c>
       <c r="J239" t="n">
-        <v>73.57616686021704</v>
+        <v>32.59931176091941</v>
       </c>
     </row>
     <row r="240">
@@ -8602,10 +8602,10 @@
         <v>38.46755646979692</v>
       </c>
       <c r="I240" t="n">
-        <v>49.52257920659192</v>
+        <v>8.545724107294284</v>
       </c>
       <c r="J240" t="n">
-        <v>59.55129235021975</v>
+        <v>18.57443725092212</v>
       </c>
     </row>
     <row r="241">
@@ -8636,10 +8636,10 @@
         <v>44.0394842661053</v>
       </c>
       <c r="I241" t="n">
-        <v>49.05629766560666</v>
+        <v>8.079442566309027</v>
       </c>
       <c r="J241" t="n">
-        <v>53.97936455391137</v>
+        <v>13.00250945461374</v>
       </c>
     </row>
     <row r="242">
@@ -8670,10 +8670,10 @@
         <v>32.16103158639762</v>
       </c>
       <c r="I242" t="n">
-        <v>49.47596630037042</v>
+        <v>8.499111201072786</v>
       </c>
       <c r="J242" t="n">
-        <v>65.85781723361904</v>
+        <v>24.88096213432141</v>
       </c>
     </row>
     <row r="243">
@@ -8704,10 +8704,10 @@
         <v>36.12572129043938</v>
       </c>
       <c r="I243" t="n">
-        <v>48.10955324905044</v>
+        <v>7.132698149752805</v>
       </c>
       <c r="J243" t="n">
-        <v>61.89312752957729</v>
+        <v>20.91627243027965</v>
       </c>
     </row>
     <row r="244">
@@ -8738,10 +8738,10 @@
         <v>12.23922321024358</v>
       </c>
       <c r="I244" t="n">
-        <v>52.97406360222702</v>
+        <v>11.99720850292938</v>
       </c>
       <c r="J244" t="n">
-        <v>85.77962560977309</v>
+        <v>44.80277051047545</v>
       </c>
     </row>
     <row r="245">
@@ -8772,10 +8772,10 @@
         <v>35.47461063374696</v>
       </c>
       <c r="I245" t="n">
-        <v>49.85117931942191</v>
+        <v>8.874324220124272</v>
       </c>
       <c r="J245" t="n">
-        <v>62.54423818626971</v>
+        <v>21.56738308697207</v>
       </c>
     </row>
     <row r="246">
@@ -8806,10 +8806,10 @@
         <v>30.31882218310928</v>
       </c>
       <c r="I246" t="n">
-        <v>49.31827112799839</v>
+        <v>8.341416028700756</v>
       </c>
       <c r="J246" t="n">
-        <v>67.7000266369074</v>
+        <v>26.72317153760975</v>
       </c>
     </row>
     <row r="247">
@@ -8840,10 +8840,10 @@
         <v>34.28274138232121</v>
       </c>
       <c r="I247" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J247" t="n">
-        <v>63.73610743769546</v>
+        <v>22.75925233839782</v>
       </c>
     </row>
     <row r="248">
@@ -8874,10 +8874,10 @@
         <v>36.26912162588322</v>
       </c>
       <c r="I248" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J248" t="n">
-        <v>61.74972719413345</v>
+        <v>20.77287209483581</v>
       </c>
     </row>
     <row r="249">
@@ -8908,10 +8908,10 @@
         <v>53.55427803214728</v>
       </c>
       <c r="I249" t="n">
-        <v>43.14327789292765</v>
+        <v>2.166422793630012</v>
       </c>
       <c r="J249" t="n">
-        <v>44.46457078786939</v>
+        <v>3.487715688571754</v>
       </c>
     </row>
     <row r="250">
@@ -8942,10 +8942,10 @@
         <v>40.4732990985225</v>
       </c>
       <c r="I250" t="n">
-        <v>49.52257920659191</v>
+        <v>8.545724107294276</v>
       </c>
       <c r="J250" t="n">
-        <v>57.54554972149417</v>
+        <v>16.56869462219653</v>
       </c>
     </row>
     <row r="251">
@@ -8976,10 +8976,10 @@
         <v>19.54870971094295</v>
       </c>
       <c r="I251" t="n">
-        <v>50.58600671854727</v>
+        <v>9.609151619249637</v>
       </c>
       <c r="J251" t="n">
-        <v>78.47013910907373</v>
+        <v>37.49328400977608</v>
       </c>
     </row>
     <row r="252">
@@ -9010,10 +9010,10 @@
         <v>43.42410090506725</v>
       </c>
       <c r="I252" t="n">
-        <v>49.05629766560663</v>
+        <v>8.079442566308991</v>
       </c>
       <c r="J252" t="n">
-        <v>54.59474791494942</v>
+        <v>13.61789281565179</v>
       </c>
     </row>
     <row r="253">
@@ -9044,10 +9044,10 @@
         <v>18.36635849059473</v>
       </c>
       <c r="I253" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J253" t="n">
-        <v>79.65249032942194</v>
+        <v>38.6756352301243</v>
       </c>
     </row>
     <row r="254">
@@ -9078,10 +9078,10 @@
         <v>40.00534713361604</v>
       </c>
       <c r="I254" t="n">
-        <v>49.4789366441779</v>
+        <v>8.502081544880262</v>
       </c>
       <c r="J254" t="n">
-        <v>58.01350168640063</v>
+        <v>17.03664658710299</v>
       </c>
     </row>
     <row r="255">
@@ -9112,10 +9112,10 @@
         <v>15.3944531183033</v>
       </c>
       <c r="I255" t="n">
-        <v>51.19132590761707</v>
+        <v>10.21447080831943</v>
       </c>
       <c r="J255" t="n">
-        <v>82.62439570171337</v>
+        <v>41.64754060241573</v>
       </c>
     </row>
     <row r="256">
@@ -9146,10 +9146,10 @@
         <v>12.91562655060535</v>
       </c>
       <c r="I256" t="n">
-        <v>52.97406360222702</v>
+        <v>11.99720850292938</v>
       </c>
       <c r="J256" t="n">
-        <v>85.10322226941132</v>
+        <v>44.12636717011368</v>
       </c>
     </row>
     <row r="257">
@@ -9180,10 +9180,10 @@
         <v>29.64451153869044</v>
       </c>
       <c r="I257" t="n">
-        <v>49.39713164034207</v>
+        <v>8.420276541044437</v>
       </c>
       <c r="J257" t="n">
-        <v>68.37433728132623</v>
+        <v>27.39748218202859</v>
       </c>
     </row>
     <row r="258">
@@ -9214,10 +9214,10 @@
         <v>13.25382822078625</v>
       </c>
       <c r="I258" t="n">
-        <v>52.97406360222702</v>
+        <v>11.99720850292938</v>
       </c>
       <c r="J258" t="n">
-        <v>84.76502059923043</v>
+        <v>43.78816549993279</v>
       </c>
     </row>
     <row r="259">
@@ -9248,10 +9248,10 @@
         <v>34.97140109651953</v>
       </c>
       <c r="I259" t="n">
-        <v>49.53516464157793</v>
+        <v>8.558309542280291</v>
       </c>
       <c r="J259" t="n">
-        <v>63.04744772349714</v>
+        <v>22.07059262419951</v>
       </c>
     </row>
     <row r="260">
@@ -9282,10 +9282,10 @@
         <v>27.33036044613877</v>
       </c>
       <c r="I260" t="n">
-        <v>49.38083624760736</v>
+        <v>8.403981148309725</v>
       </c>
       <c r="J260" t="n">
-        <v>70.6884883738779</v>
+        <v>29.71163327458027</v>
       </c>
     </row>
     <row r="261">
@@ -9316,10 +9316,10 @@
         <v>16.63287184915813</v>
       </c>
       <c r="I261" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J261" t="n">
-        <v>81.38597697085854</v>
+        <v>40.40912187156091</v>
       </c>
     </row>
     <row r="262">
@@ -9350,10 +9350,10 @@
         <v>31.09265000379445</v>
       </c>
       <c r="I262" t="n">
-        <v>49.47596630037041</v>
+        <v>8.499111201072772</v>
       </c>
       <c r="J262" t="n">
-        <v>66.92619881622223</v>
+        <v>25.94934371692458</v>
       </c>
     </row>
     <row r="263">
@@ -9384,10 +9384,10 @@
         <v>49.80553059039068</v>
       </c>
       <c r="I263" t="n">
-        <v>44.90353898775178</v>
+        <v>3.926683888454143</v>
       </c>
       <c r="J263" t="n">
-        <v>48.21331822962599</v>
+        <v>7.236463130328353</v>
       </c>
     </row>
     <row r="264">
@@ -9418,10 +9418,10 @@
         <v>31.48812500853642</v>
       </c>
       <c r="I264" t="n">
-        <v>49.19437982082203</v>
+        <v>8.217524721524391</v>
       </c>
       <c r="J264" t="n">
-        <v>66.53072381148024</v>
+        <v>25.55386871218261</v>
       </c>
     </row>
     <row r="265">
@@ -9452,10 +9452,10 @@
         <v>24.09965256059863</v>
       </c>
       <c r="I265" t="n">
-        <v>50.59319711375012</v>
+        <v>9.616342014452478</v>
       </c>
       <c r="J265" t="n">
-        <v>73.91919625941804</v>
+        <v>32.94234116012041</v>
       </c>
     </row>
     <row r="266">
@@ -9486,10 +9486,10 @@
         <v>37.46094977202043</v>
       </c>
       <c r="I266" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J266" t="n">
-        <v>60.55789904799624</v>
+        <v>19.58104394869861</v>
       </c>
     </row>
     <row r="267">
@@ -9520,10 +9520,10 @@
         <v>49.84678804128647</v>
       </c>
       <c r="I267" t="n">
-        <v>45.2997482127374</v>
+        <v>4.322893113439761</v>
       </c>
       <c r="J267" t="n">
-        <v>48.1720607787302</v>
+        <v>7.195205679432561</v>
       </c>
     </row>
     <row r="268">
@@ -9554,10 +9554,10 @@
         <v>11.90102154006268</v>
       </c>
       <c r="I268" t="n">
-        <v>52.97406360222703</v>
+        <v>11.9972085029294</v>
       </c>
       <c r="J268" t="n">
-        <v>86.11782727995399</v>
+        <v>45.14097218065636</v>
       </c>
     </row>
     <row r="269">
@@ -9588,10 +9588,10 @@
         <v>18.81491675329753</v>
       </c>
       <c r="I269" t="n">
-        <v>50.58600671854726</v>
+        <v>9.609151619249623</v>
       </c>
       <c r="J269" t="n">
-        <v>79.20393206671915</v>
+        <v>38.2270769674215</v>
       </c>
     </row>
     <row r="270">
@@ -9622,10 +9622,10 @@
         <v>42.33515002006798</v>
       </c>
       <c r="I270" t="n">
-        <v>49.01679979982024</v>
+        <v>8.039944700522604</v>
       </c>
       <c r="J270" t="n">
-        <v>55.68369879994869</v>
+        <v>14.70684370065106</v>
       </c>
     </row>
     <row r="271">
@@ -9656,10 +9656,10 @@
         <v>18.0196611623074</v>
       </c>
       <c r="I271" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J271" t="n">
-        <v>79.99918765770927</v>
+        <v>39.02233255841163</v>
       </c>
     </row>
     <row r="272">
@@ -9690,10 +9690,10 @@
         <v>51.46910799414375</v>
       </c>
       <c r="I272" t="n">
-        <v>43.84257262275665</v>
+        <v>2.865717523459011</v>
       </c>
       <c r="J272" t="n">
-        <v>46.54974082587292</v>
+        <v>5.572885726575286</v>
       </c>
     </row>
     <row r="273">
@@ -9724,10 +9724,10 @@
         <v>45.32101804537506</v>
       </c>
       <c r="I273" t="n">
-        <v>48.73632403811752</v>
+        <v>7.759468938819886</v>
       </c>
       <c r="J273" t="n">
-        <v>52.69783077464161</v>
+        <v>11.72097567534397</v>
       </c>
     </row>
     <row r="274">
@@ -9758,10 +9758,10 @@
         <v>14.54131574219893</v>
       </c>
       <c r="I274" t="n">
-        <v>52.07975109447837</v>
+        <v>11.10289599518073</v>
       </c>
       <c r="J274" t="n">
-        <v>83.47753307781774</v>
+        <v>42.5006779785201</v>
       </c>
     </row>
     <row r="275">
@@ -9792,10 +9792,10 @@
         <v>40.67387336139503</v>
       </c>
       <c r="I275" t="n">
-        <v>49.52257920659194</v>
+        <v>8.545724107294298</v>
       </c>
       <c r="J275" t="n">
-        <v>57.34497545862164</v>
+        <v>16.368120359324</v>
       </c>
     </row>
     <row r="276">
@@ -9826,10 +9826,10 @@
         <v>32.42257107107894</v>
       </c>
       <c r="I276" t="n">
-        <v>49.23945279847544</v>
+        <v>8.262597699177803</v>
       </c>
       <c r="J276" t="n">
-        <v>65.59627774893772</v>
+        <v>24.61942264964009</v>
       </c>
     </row>
     <row r="277">
@@ -9860,10 +9860,10 @@
         <v>11.5628198698818</v>
       </c>
       <c r="I277" t="n">
-        <v>52.97406360222702</v>
+        <v>11.99720850292938</v>
       </c>
       <c r="J277" t="n">
-        <v>86.45602895013488</v>
+        <v>45.47917385083723</v>
       </c>
     </row>
     <row r="278">
@@ -9894,10 +9894,10 @@
         <v>17.67296383402009</v>
       </c>
       <c r="I278" t="n">
-        <v>51.57000673814887</v>
+        <v>10.59315163885123</v>
       </c>
       <c r="J278" t="n">
-        <v>80.34588498599658</v>
+        <v>39.36902988669894</v>
       </c>
     </row>
     <row r="279">
@@ -9928,10 +9928,10 @@
         <v>49.20700960940611</v>
       </c>
       <c r="I279" t="n">
-        <v>45.39738214121575</v>
+        <v>4.420527041918113</v>
       </c>
       <c r="J279" t="n">
-        <v>48.81183921061056</v>
+        <v>7.834984111312927</v>
       </c>
     </row>
     <row r="280">
@@ -9962,10 +9962,10 @@
         <v>52.33716491218446</v>
       </c>
       <c r="I280" t="n">
-        <v>43.20810152113379</v>
+        <v>2.231246421836154</v>
       </c>
       <c r="J280" t="n">
-        <v>45.68168390783221</v>
+        <v>4.704828808534572</v>
       </c>
     </row>
     <row r="281">
@@ -9996,10 +9996,10 @@
         <v>36.66639767459561</v>
       </c>
       <c r="I281" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J281" t="n">
-        <v>61.35245114542106</v>
+        <v>20.37559604612343</v>
       </c>
     </row>
     <row r="282">
@@ -10030,10 +10030,10 @@
         <v>38.86870499554205</v>
       </c>
       <c r="I282" t="n">
-        <v>49.52257920659191</v>
+        <v>8.545724107294276</v>
       </c>
       <c r="J282" t="n">
-        <v>59.15014382447462</v>
+        <v>18.17328872517698</v>
       </c>
     </row>
     <row r="283">
@@ -10064,10 +10064,10 @@
         <v>46.79070285664585</v>
       </c>
       <c r="I283" t="n">
-        <v>47.84615399411635</v>
+        <v>6.869298894818712</v>
       </c>
       <c r="J283" t="n">
-        <v>51.22814596337082</v>
+        <v>10.25129086407318</v>
       </c>
     </row>
     <row r="284">
@@ -10098,10 +10098,10 @@
         <v>47.77418861216841</v>
       </c>
       <c r="I284" t="n">
-        <v>46.12314204404259</v>
+        <v>5.146286944744958</v>
       </c>
       <c r="J284" t="n">
-        <v>50.24466020784826</v>
+        <v>9.267805108550625</v>
       </c>
     </row>
     <row r="285">
@@ -10132,10 +10132,10 @@
         <v>41.78285218747285</v>
       </c>
       <c r="I285" t="n">
-        <v>49.36487032287654</v>
+        <v>8.388015223578904</v>
       </c>
       <c r="J285" t="n">
-        <v>56.23599663254382</v>
+        <v>15.25914153324619</v>
       </c>
     </row>
     <row r="286">
@@ -10166,10 +10166,10 @@
         <v>43.21897311805452</v>
       </c>
       <c r="I286" t="n">
-        <v>49.05629766560666</v>
+        <v>8.079442566309027</v>
       </c>
       <c r="J286" t="n">
-        <v>54.79987570196215</v>
+        <v>13.82302060266451</v>
       </c>
     </row>
     <row r="287">
@@ -10200,10 +10200,10 @@
         <v>16.97956917744545</v>
       </c>
       <c r="I287" t="n">
-        <v>51.57000673814886</v>
+        <v>10.59315163885122</v>
       </c>
       <c r="J287" t="n">
-        <v>81.03927964257122</v>
+        <v>40.06242454327359</v>
       </c>
     </row>
     <row r="288">
@@ -10234,10 +10234,10 @@
         <v>50.47336495202603</v>
       </c>
       <c r="I288" t="n">
-        <v>45.22175893398821</v>
+        <v>4.244903834690575</v>
       </c>
       <c r="J288" t="n">
-        <v>47.54548386799064</v>
+        <v>6.568628768693003</v>
       </c>
     </row>
     <row r="289">
@@ -10268,10 +10268,10 @@
         <v>45.52951839992895</v>
       </c>
       <c r="I289" t="n">
-        <v>48.73632403811753</v>
+        <v>7.759468938819893</v>
       </c>
       <c r="J289" t="n">
-        <v>52.48933042008772</v>
+        <v>11.51247532079008</v>
       </c>
     </row>
     <row r="290">
@@ -10302,10 +10302,10 @@
         <v>34.68001743103361</v>
       </c>
       <c r="I290" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J290" t="n">
-        <v>63.33883138898306</v>
+        <v>22.36197628968542</v>
       </c>
     </row>
     <row r="291">
@@ -10336,10 +10336,10 @@
         <v>15.96467481391322</v>
       </c>
       <c r="I291" t="n">
-        <v>51.1357339442027</v>
+        <v>10.15887884490506</v>
       </c>
       <c r="J291" t="n">
-        <v>82.05417400610345</v>
+        <v>41.07731890680581</v>
       </c>
     </row>
     <row r="292">
@@ -10370,10 +10370,10 @@
         <v>17.18703120082226</v>
       </c>
       <c r="I292" t="n">
-        <v>51.4449516430996</v>
+        <v>10.46809654380196</v>
       </c>
       <c r="J292" t="n">
-        <v>80.83181761919441</v>
+        <v>39.85496251989677</v>
       </c>
     </row>
     <row r="293">
@@ -10404,10 +10404,10 @@
         <v>39.67100204703226</v>
       </c>
       <c r="I293" t="n">
-        <v>49.52257920659194</v>
+        <v>8.545724107294298</v>
       </c>
       <c r="J293" t="n">
-        <v>58.34784677298441</v>
+        <v>17.37099167368677</v>
       </c>
     </row>
     <row r="294">
@@ -10438,10 +10438,10 @@
         <v>44.90401733626726</v>
       </c>
       <c r="I294" t="n">
-        <v>48.73632403811753</v>
+        <v>7.759468938819893</v>
       </c>
       <c r="J294" t="n">
-        <v>53.11483148374941</v>
+        <v>12.13797638445178</v>
       </c>
     </row>
     <row r="295">
@@ -10472,10 +10472,10 @@
         <v>42.60358975701645</v>
       </c>
       <c r="I295" t="n">
-        <v>49.05629766560664</v>
+        <v>8.079442566309005</v>
       </c>
       <c r="J295" t="n">
-        <v>55.41525906300022</v>
+        <v>14.43840396370258</v>
       </c>
     </row>
     <row r="296">
@@ -10506,10 +10506,10 @@
         <v>28.21226960352183</v>
       </c>
       <c r="I296" t="n">
-        <v>49.39713164034207</v>
+        <v>8.420276541044437</v>
       </c>
       <c r="J296" t="n">
-        <v>69.80657921649484</v>
+        <v>28.82972411719721</v>
       </c>
     </row>
     <row r="297">
@@ -10540,10 +10540,10 @@
         <v>49.03054556402019</v>
       </c>
       <c r="I297" t="n">
-        <v>45.91387568970476</v>
+        <v>4.937020590407123</v>
       </c>
       <c r="J297" t="n">
-        <v>48.98830325599648</v>
+        <v>8.011448156698847</v>
       </c>
     </row>
     <row r="298">
@@ -10574,10 +10574,10 @@
         <v>18.27055477072809</v>
       </c>
       <c r="I298" t="n">
-        <v>50.98572185637851</v>
+        <v>10.00886675708087</v>
       </c>
       <c r="J298" t="n">
-        <v>79.74829404928857</v>
+        <v>38.77143894999094</v>
       </c>
     </row>
     <row r="299">
@@ -10608,10 +10608,10 @@
         <v>12.57742488042446</v>
       </c>
       <c r="I299" t="n">
-        <v>52.97406360222702</v>
+        <v>11.99720850292938</v>
       </c>
       <c r="J299" t="n">
-        <v>85.44142393959221</v>
+        <v>44.46456884029458</v>
       </c>
     </row>
     <row r="300">
@@ -10642,10 +10642,10 @@
         <v>18.28338524161162</v>
       </c>
       <c r="I300" t="n">
-        <v>50.62705562433694</v>
+        <v>9.650200525039303</v>
       </c>
       <c r="J300" t="n">
-        <v>79.73546357840505</v>
+        <v>38.75860847910742</v>
       </c>
     </row>
     <row r="301">
@@ -10676,10 +10676,10 @@
         <v>37.85822582073282</v>
       </c>
       <c r="I301" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J301" t="n">
-        <v>60.16062299928385</v>
+        <v>19.18376789998621</v>
       </c>
     </row>
     <row r="302">
@@ -10710,10 +10710,10 @@
         <v>42.22826235656921</v>
       </c>
       <c r="I302" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J302" t="n">
-        <v>55.79058646344746</v>
+        <v>14.81373136414982</v>
       </c>
     </row>
     <row r="303">
@@ -10744,10 +10744,10 @@
         <v>13.40380122680173</v>
       </c>
       <c r="I303" t="n">
-        <v>53.01072621846124</v>
+        <v>12.03387111916361</v>
       </c>
       <c r="J303" t="n">
-        <v>84.61504759321494</v>
+        <v>43.6381924939173</v>
       </c>
     </row>
     <row r="304">
@@ -10778,10 +10778,10 @@
         <v>54.58431692148883</v>
       </c>
       <c r="I304" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
       <c r="J304" t="n">
-        <v>43.43453189852784</v>
+        <v>2.457676799230207</v>
       </c>
     </row>
     <row r="305">
@@ -10812,10 +10812,10 @@
         <v>40.63915816171964</v>
       </c>
       <c r="I305" t="n">
-        <v>49.83144573276144</v>
+        <v>8.854590633463808</v>
       </c>
       <c r="J305" t="n">
-        <v>57.37969065829703</v>
+        <v>16.40283555899939</v>
       </c>
     </row>
     <row r="306">
@@ -10846,10 +10846,10 @@
         <v>26.00858467771512</v>
       </c>
       <c r="I306" t="n">
-        <v>50.71205913411361</v>
+        <v>9.735204034815972</v>
       </c>
       <c r="J306" t="n">
-        <v>72.01026414230155</v>
+        <v>31.03340904300391</v>
       </c>
     </row>
     <row r="307">
@@ -10880,10 +10880,10 @@
         <v>45.00919469755598</v>
       </c>
       <c r="I307" t="n">
-        <v>49.83144573276149</v>
+        <v>8.854590633463857</v>
       </c>
       <c r="J307" t="n">
-        <v>53.0096541224607</v>
+        <v>12.03279902316306</v>
       </c>
     </row>
     <row r="308">
@@ -10914,10 +10914,10 @@
         <v>47.29181662743009</v>
       </c>
       <c r="I308" t="n">
-        <v>45.89065878960767</v>
+        <v>4.913803690310033</v>
       </c>
       <c r="J308" t="n">
-        <v>50.72703219258658</v>
+        <v>9.750177093288947</v>
       </c>
     </row>
     <row r="309">
@@ -10948,10 +10948,10 @@
         <v>40.83779618607581</v>
       </c>
       <c r="I309" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J309" t="n">
-        <v>57.18105263394086</v>
+        <v>16.20419753464322</v>
       </c>
     </row>
     <row r="310">
@@ -10982,10 +10982,10 @@
         <v>41.23507223478821</v>
       </c>
       <c r="I310" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J310" t="n">
-        <v>56.78377658522846</v>
+        <v>15.80692148593082</v>
       </c>
     </row>
     <row r="311">
@@ -11016,10 +11016,10 @@
         <v>35.87184557717082</v>
       </c>
       <c r="I311" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J311" t="n">
-        <v>62.14700324284586</v>
+        <v>21.17014814354822</v>
       </c>
     </row>
     <row r="312">
@@ -11050,10 +11050,10 @@
         <v>35.07729347974602</v>
       </c>
       <c r="I312" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J312" t="n">
-        <v>62.94155534027065</v>
+        <v>21.96470024097302</v>
       </c>
     </row>
     <row r="313">
@@ -11084,10 +11084,10 @@
         <v>43.02281445399401</v>
       </c>
       <c r="I313" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J313" t="n">
-        <v>54.99603436602266</v>
+        <v>14.01917926672503</v>
       </c>
     </row>
     <row r="314">
@@ -11118,10 +11118,10 @@
         <v>13.75136634458115</v>
       </c>
       <c r="I314" t="n">
-        <v>53.06136184572276</v>
+        <v>12.08450674642513</v>
       </c>
       <c r="J314" t="n">
-        <v>84.26748247543551</v>
+        <v>43.29062737613788</v>
       </c>
     </row>
     <row r="315">
@@ -11152,10 +11152,10 @@
         <v>22.27965138317656</v>
       </c>
       <c r="I315" t="n">
-        <v>51.54200797842588</v>
+        <v>10.56515287912824</v>
       </c>
       <c r="J315" t="n">
-        <v>75.73919743684012</v>
+        <v>34.76234233754248</v>
       </c>
     </row>
     <row r="316">
@@ -11186,10 +11186,10 @@
         <v>26.77345802167564</v>
       </c>
       <c r="I316" t="n">
-        <v>50.4927582461269</v>
+        <v>9.515903146829267</v>
       </c>
       <c r="J316" t="n">
-        <v>71.24539079834103</v>
+        <v>30.26853569904339</v>
       </c>
     </row>
     <row r="317">
@@ -11220,10 +11220,10 @@
         <v>39.05005396687001</v>
       </c>
       <c r="I317" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J317" t="n">
-        <v>58.96879485314666</v>
+        <v>17.99193975384902</v>
       </c>
     </row>
     <row r="318">
@@ -11254,10 +11254,10 @@
         <v>44.81055667319979</v>
       </c>
       <c r="I318" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J318" t="n">
-        <v>53.20829214681688</v>
+        <v>12.23143704751924</v>
       </c>
     </row>
     <row r="319">
@@ -11288,10 +11288,10 @@
         <v>41.036434210432</v>
       </c>
       <c r="I319" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J319" t="n">
-        <v>56.98241460958467</v>
+        <v>16.00555951028704</v>
       </c>
     </row>
     <row r="320">
@@ -11322,10 +11322,10 @@
         <v>44.21464260013119</v>
       </c>
       <c r="I320" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J320" t="n">
-        <v>53.80420621988548</v>
+        <v>12.82735112058784</v>
       </c>
     </row>
     <row r="321">
@@ -11356,10 +11356,10 @@
         <v>24.87446394420275</v>
       </c>
       <c r="I321" t="n">
-        <v>50.98715737170104</v>
+        <v>10.01030227240341</v>
       </c>
       <c r="J321" t="n">
-        <v>73.14438487581393</v>
+        <v>32.16752977651629</v>
       </c>
     </row>
     <row r="322">
@@ -11390,10 +11390,10 @@
         <v>12.71384929560189</v>
       </c>
       <c r="I322" t="n">
-        <v>53.23080382008243</v>
+        <v>12.25394872078479</v>
       </c>
       <c r="J322" t="n">
-        <v>85.30499952441478</v>
+        <v>44.32814442511715</v>
       </c>
     </row>
     <row r="323">
@@ -11424,10 +11424,10 @@
         <v>43.81736655141882</v>
       </c>
       <c r="I323" t="n">
-        <v>49.83144573276145</v>
+        <v>8.854590633463815</v>
       </c>
       <c r="J323" t="n">
-        <v>54.20148226859785</v>
+        <v>13.22462716930021</v>
       </c>
     </row>
     <row r="324">
@@ -11458,10 +11458,10 @@
         <v>18.31363010135769</v>
       </c>
       <c r="I324" t="n">
-        <v>52.32568119399759</v>
+        <v>11.34882609469995</v>
       </c>
       <c r="J324" t="n">
-        <v>79.70521871865898</v>
+        <v>38.72836361936135</v>
       </c>
     </row>
     <row r="325">
@@ -11492,10 +11492,10 @@
         <v>29.51542879777243</v>
       </c>
       <c r="I325" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J325" t="n">
-        <v>68.50342002224424</v>
+        <v>27.5265649229466</v>
       </c>
     </row>
     <row r="326">
@@ -11526,10 +11526,10 @@
         <v>37.06367372330801</v>
       </c>
       <c r="I326" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J326" t="n">
-        <v>60.95517509670866</v>
+        <v>19.97831999741103</v>
       </c>
     </row>
     <row r="327">
@@ -11560,10 +11560,10 @@
         <v>21.91388750888958</v>
       </c>
       <c r="I327" t="n">
-        <v>51.59860730447079</v>
+        <v>10.62175220517315</v>
       </c>
       <c r="J327" t="n">
-        <v>76.10496131112708</v>
+        <v>35.12810621182945</v>
       </c>
     </row>
     <row r="328">
@@ -11594,10 +11594,10 @@
         <v>19.02642612486738</v>
       </c>
       <c r="I328" t="n">
-        <v>52.19108557668026</v>
+        <v>11.21423047738262</v>
       </c>
       <c r="J328" t="n">
-        <v>78.99242269514929</v>
+        <v>38.01556759585165</v>
       </c>
     </row>
     <row r="329">
@@ -11628,10 +11628,10 @@
         <v>38.2555018694452</v>
       </c>
       <c r="I329" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J329" t="n">
-        <v>59.76334695057147</v>
+        <v>18.78649185127384</v>
       </c>
     </row>
     <row r="330">
@@ -11662,10 +11662,10 @@
         <v>43.4200905027064</v>
       </c>
       <c r="I330" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J330" t="n">
-        <v>54.59875831731027</v>
+        <v>13.62190321801263</v>
       </c>
     </row>
     <row r="331">
@@ -11696,10 +11696,10 @@
         <v>29.91270484648483</v>
       </c>
       <c r="I331" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J331" t="n">
-        <v>68.10614397353184</v>
+        <v>27.12928887423421</v>
       </c>
     </row>
     <row r="332">
@@ -11730,10 +11730,10 @@
         <v>27.54612590878413</v>
       </c>
       <c r="I332" t="n">
-        <v>50.27422601089092</v>
+        <v>9.297370911593283</v>
       </c>
       <c r="J332" t="n">
-        <v>70.47272291123254</v>
+        <v>29.4958678119349</v>
       </c>
     </row>
     <row r="333">
@@ -11764,10 +11764,10 @@
         <v>20.10209320647307</v>
       </c>
       <c r="I333" t="n">
-        <v>52.00077040545829</v>
+        <v>11.02391530616065</v>
       </c>
       <c r="J333" t="n">
-        <v>77.9167556135436</v>
+        <v>36.93990051424596</v>
       </c>
     </row>
     <row r="334">
@@ -11798,10 +11798,10 @@
         <v>33.88546533360881</v>
       </c>
       <c r="I334" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J334" t="n">
-        <v>64.13338348640787</v>
+        <v>23.15652838711022</v>
       </c>
     </row>
     <row r="335">
@@ -11832,10 +11832,10 @@
         <v>11.36926888985138</v>
       </c>
       <c r="I335" t="n">
-        <v>54.07124354573063</v>
+        <v>13.09438844643299</v>
       </c>
       <c r="J335" t="n">
-        <v>86.64957993016529</v>
+        <v>45.67272483086765</v>
       </c>
     </row>
     <row r="336">
@@ -11866,10 +11866,10 @@
         <v>35.47456952845842</v>
       </c>
       <c r="I336" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J336" t="n">
-        <v>62.54427929155825</v>
+        <v>21.56742419226062</v>
       </c>
     </row>
     <row r="337">
@@ -11900,10 +11900,10 @@
         <v>26.38930774249439</v>
       </c>
       <c r="I337" t="n">
-        <v>50.50170806835886</v>
+        <v>9.524852969061222</v>
       </c>
       <c r="J337" t="n">
-        <v>71.62954107752228</v>
+        <v>30.65268597822465</v>
       </c>
     </row>
     <row r="338">
@@ -11934,10 +11934,10 @@
         <v>22.64645217378153</v>
       </c>
       <c r="I338" t="n">
-        <v>51.46777788909302</v>
+        <v>10.49092278979538</v>
       </c>
       <c r="J338" t="n">
-        <v>75.37239664623515</v>
+        <v>34.39554154693751</v>
       </c>
     </row>
     <row r="339">
@@ -11968,10 +11968,10 @@
         <v>34.28274138232121</v>
       </c>
       <c r="I339" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J339" t="n">
-        <v>63.73610743769546</v>
+        <v>22.75925233839782</v>
       </c>
     </row>
     <row r="340">
@@ -12002,10 +12002,10 @@
         <v>36.26912162588322</v>
       </c>
       <c r="I340" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J340" t="n">
-        <v>61.74972719413345</v>
+        <v>20.77287209483581</v>
       </c>
     </row>
     <row r="341">
@@ -12036,10 +12036,10 @@
         <v>52.04165824028119</v>
       </c>
       <c r="I341" t="n">
-        <v>44.26758086217532</v>
+        <v>3.290725762877685</v>
       </c>
       <c r="J341" t="n">
-        <v>45.97719057973548</v>
+        <v>5.000335480437847</v>
       </c>
     </row>
     <row r="342">
@@ -12070,10 +12070,10 @@
         <v>40.24188211300722</v>
       </c>
       <c r="I342" t="n">
-        <v>49.83144573276145</v>
+        <v>8.854590633463815</v>
       </c>
       <c r="J342" t="n">
-        <v>57.77696670700945</v>
+        <v>16.80011160771181</v>
       </c>
     </row>
     <row r="343">
@@ -12104,10 +12104,10 @@
         <v>18.66957236964102</v>
       </c>
       <c r="I343" t="n">
-        <v>52.24175734396407</v>
+        <v>11.26490224466644</v>
       </c>
       <c r="J343" t="n">
-        <v>79.34927645037565</v>
+        <v>38.37242135107802</v>
       </c>
     </row>
     <row r="344">
@@ -12138,10 +12138,10 @@
         <v>42.82417642963779</v>
       </c>
       <c r="I344" t="n">
-        <v>49.83144573276149</v>
+        <v>8.854590633463857</v>
       </c>
       <c r="J344" t="n">
-        <v>55.19467239037888</v>
+        <v>14.21781729108125</v>
       </c>
     </row>
     <row r="345">
@@ -12172,10 +12172,10 @@
         <v>48.40734363755212</v>
       </c>
       <c r="I345" t="n">
-        <v>45.6847451174795</v>
+        <v>4.707890018181864</v>
       </c>
       <c r="J345" t="n">
-        <v>49.61150518246455</v>
+        <v>8.634650083166918</v>
       </c>
     </row>
     <row r="346">
@@ -12206,10 +12206,10 @@
         <v>16.89715267554328</v>
       </c>
       <c r="I346" t="n">
-        <v>52.61589206667678</v>
+        <v>11.63903696737914</v>
       </c>
       <c r="J346" t="n">
-        <v>81.12169614447339</v>
+        <v>40.14484104517575</v>
       </c>
     </row>
     <row r="347">
@@ -12240,10 +12240,10 @@
         <v>39.84460606429482</v>
       </c>
       <c r="I347" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J347" t="n">
-        <v>58.17424275572185</v>
+        <v>17.19738765642421</v>
       </c>
     </row>
     <row r="348">
@@ -12274,10 +12274,10 @@
         <v>14.79430543126759</v>
       </c>
       <c r="I348" t="n">
-        <v>52.9013640379428</v>
+        <v>11.92450893864516</v>
       </c>
       <c r="J348" t="n">
-        <v>83.22454338874908</v>
+        <v>42.24768828945145</v>
       </c>
     </row>
     <row r="349">
@@ -12308,10 +12308,10 @@
         <v>12.04098716581911</v>
       </c>
       <c r="I349" t="n">
-        <v>54.07124354573063</v>
+        <v>13.09438844643299</v>
       </c>
       <c r="J349" t="n">
-        <v>85.97786165419757</v>
+        <v>45.00100655489992</v>
       </c>
     </row>
     <row r="350">
@@ -12342,10 +12342,10 @@
         <v>27.15876745573264</v>
       </c>
       <c r="I350" t="n">
-        <v>50.38542151442689</v>
+        <v>9.408566415129258</v>
       </c>
       <c r="J350" t="n">
-        <v>70.86008136428403</v>
+        <v>29.88322626498639</v>
       </c>
     </row>
     <row r="351">
@@ -12376,10 +12376,10 @@
         <v>12.37684630380298</v>
       </c>
       <c r="I351" t="n">
-        <v>54.07124354573063</v>
+        <v>13.09438844643299</v>
       </c>
       <c r="J351" t="n">
-        <v>85.64200251621369</v>
+        <v>44.66514741691606</v>
       </c>
     </row>
     <row r="352">
@@ -12410,10 +12410,10 @@
         <v>15.14308762555058</v>
       </c>
       <c r="I352" t="n">
-        <v>52.8755689348471</v>
+        <v>11.89871383554947</v>
       </c>
       <c r="J352" t="n">
-        <v>82.87576119446609</v>
+        <v>41.89890609516846</v>
       </c>
     </row>
     <row r="353">
@@ -12444,10 +12444,10 @@
         <v>28.72153415202061</v>
       </c>
       <c r="I353" t="n">
-        <v>49.94459145592123</v>
+        <v>8.967736356623597</v>
       </c>
       <c r="J353" t="n">
-        <v>69.29731466799606</v>
+        <v>28.32045956869842</v>
       </c>
     </row>
     <row r="354">
@@ -12478,10 +12478,10 @@
         <v>47.84637791398282</v>
       </c>
       <c r="I354" t="n">
-        <v>45.68474511747951</v>
+        <v>4.707890018181871</v>
       </c>
       <c r="J354" t="n">
-        <v>50.17247090603385</v>
+        <v>9.195615806736214</v>
       </c>
     </row>
     <row r="355">
@@ -12512,10 +12512,10 @@
         <v>29.11815274906003</v>
       </c>
       <c r="I355" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J355" t="n">
-        <v>68.90069607095664</v>
+        <v>27.923840971659</v>
       </c>
     </row>
     <row r="356">
@@ -12546,10 +12546,10 @@
         <v>37.46094977202043</v>
       </c>
       <c r="I356" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J356" t="n">
-        <v>60.55789904799624</v>
+        <v>19.58104394869861</v>
       </c>
     </row>
     <row r="357">
@@ -12580,10 +12580,10 @@
         <v>49.52927508469071</v>
       </c>
       <c r="I357" t="n">
-        <v>45.68474511747949</v>
+        <v>4.707890018181857</v>
       </c>
       <c r="J357" t="n">
-        <v>48.48957373532596</v>
+        <v>7.512718636028325</v>
       </c>
     </row>
     <row r="358">
@@ -12614,10 +12614,10 @@
         <v>11.03340975186751</v>
       </c>
       <c r="I358" t="n">
-        <v>54.07124354573064</v>
+        <v>13.094388446433</v>
       </c>
       <c r="J358" t="n">
-        <v>86.98543906814916</v>
+        <v>46.00858396885153</v>
       </c>
     </row>
     <row r="359">
@@ -12648,10 +12648,10 @@
         <v>17.95841892030566</v>
       </c>
       <c r="I359" t="n">
-        <v>52.3719822169865</v>
+        <v>11.39512711768887</v>
       </c>
       <c r="J359" t="n">
-        <v>80.06042989971101</v>
+        <v>39.08357480041337</v>
       </c>
     </row>
     <row r="360">
@@ -12682,10 +12682,10 @@
         <v>41.83098630785679</v>
       </c>
       <c r="I360" t="n">
-        <v>49.83144573276149</v>
+        <v>8.854590633463857</v>
       </c>
       <c r="J360" t="n">
-        <v>56.18786251215988</v>
+        <v>15.21100741286224</v>
       </c>
     </row>
     <row r="361">
@@ -12716,10 +12716,10 @@
         <v>16.54523207105532</v>
       </c>
       <c r="I361" t="n">
-        <v>52.62163231454788</v>
+        <v>11.64477721525024</v>
       </c>
       <c r="J361" t="n">
-        <v>81.47361674896135</v>
+        <v>40.49676164966371</v>
       </c>
     </row>
     <row r="362">
@@ -12750,10 +12750,10 @@
         <v>49.44739352984593</v>
       </c>
       <c r="I362" t="n">
-        <v>44.80906816780007</v>
+        <v>3.832213068502433</v>
       </c>
       <c r="J362" t="n">
-        <v>48.57145529017074</v>
+        <v>7.594600190873102</v>
       </c>
     </row>
     <row r="363">
@@ -12784,10 +12784,10 @@
         <v>44.41328062448743</v>
       </c>
       <c r="I363" t="n">
-        <v>49.83144573276145</v>
+        <v>8.854590633463815</v>
       </c>
       <c r="J363" t="n">
-        <v>53.60556819552924</v>
+        <v>12.62871309623161</v>
       </c>
     </row>
     <row r="364">
@@ -12818,10 +12818,10 @@
         <v>40.44052013736341</v>
       </c>
       <c r="I364" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J364" t="n">
-        <v>57.57832868265326</v>
+        <v>16.60147358335563</v>
       </c>
     </row>
     <row r="365">
@@ -12852,10 +12852,10 @@
         <v>30.30998089519722</v>
       </c>
       <c r="I365" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J365" t="n">
-        <v>67.70886792481946</v>
+        <v>26.73201282552181</v>
       </c>
     </row>
     <row r="366">
@@ -12886,10 +12886,10 @@
         <v>21.18583330719346</v>
       </c>
       <c r="I366" t="n">
-        <v>51.73235474361341</v>
+        <v>10.75549964431578</v>
       </c>
       <c r="J366" t="n">
-        <v>76.83301551282321</v>
+        <v>35.85616041352557</v>
       </c>
     </row>
     <row r="367">
@@ -12920,10 +12920,10 @@
         <v>10.69755061388366</v>
       </c>
       <c r="I367" t="n">
-        <v>54.07124354573063</v>
+        <v>13.09438844643299</v>
       </c>
       <c r="J367" t="n">
-        <v>87.32129820613301</v>
+        <v>46.34444310683537</v>
       </c>
     </row>
     <row r="368">
@@ -12954,10 +12954,10 @@
         <v>48.96830936112141</v>
       </c>
       <c r="I368" t="n">
-        <v>45.6847451174795</v>
+        <v>4.707890018181864</v>
       </c>
       <c r="J368" t="n">
-        <v>49.05053945889526</v>
+        <v>8.073684359597621</v>
       </c>
     </row>
     <row r="369">
@@ -12988,10 +12988,10 @@
         <v>43.61872852706261</v>
       </c>
       <c r="I369" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J369" t="n">
-        <v>54.40012029295406</v>
+        <v>13.42326519365643</v>
       </c>
     </row>
     <row r="370">
@@ -13022,10 +13022,10 @@
         <v>50.26531511452147</v>
       </c>
       <c r="I370" t="n">
-        <v>44.2119014067501</v>
+        <v>3.235046307452464</v>
       </c>
       <c r="J370" t="n">
-        <v>47.7535337054952</v>
+        <v>6.776678606197564</v>
       </c>
     </row>
     <row r="371">
@@ -13056,10 +13056,10 @@
         <v>36.66639767459561</v>
       </c>
       <c r="I371" t="n">
-        <v>49.83144573276147</v>
+        <v>8.854590633463836</v>
       </c>
       <c r="J371" t="n">
-        <v>61.35245114542106</v>
+        <v>20.37559604612343</v>
       </c>
     </row>
     <row r="372">
@@ -13090,10 +13090,10 @@
         <v>38.65277791815762</v>
       </c>
       <c r="I372" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J372" t="n">
-        <v>59.36607090185905</v>
+        <v>18.38921580256142</v>
       </c>
     </row>
     <row r="373">
@@ -13124,10 +13124,10 @@
         <v>41.43371025914439</v>
       </c>
       <c r="I373" t="n">
-        <v>49.83144573276148</v>
+        <v>8.854590633463843</v>
       </c>
       <c r="J373" t="n">
-        <v>56.58513856087228</v>
+        <v>15.60828346157464</v>
       </c>
     </row>
     <row r="374">
@@ -13158,10 +13158,10 @@
         <v>42.62553840528161</v>
       </c>
       <c r="I374" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J374" t="n">
-        <v>55.39331041473506</v>
+        <v>14.41645531543742</v>
       </c>
     </row>
     <row r="375">
@@ -13192,10 +13192,10 @@
         <v>45.44469449013243</v>
       </c>
       <c r="I375" t="n">
-        <v>48.78975011385273</v>
+        <v>7.812895014555096</v>
       </c>
       <c r="J375" t="n">
-        <v>52.57415432988424</v>
+        <v>11.59729923058661</v>
       </c>
     </row>
     <row r="376">
@@ -13226,10 +13226,10 @@
         <v>15.49258276207593</v>
       </c>
       <c r="I376" t="n">
-        <v>52.8242770233374</v>
+        <v>11.84742192403976</v>
       </c>
       <c r="J376" t="n">
-        <v>82.52626605794075</v>
+        <v>41.54941095864311</v>
       </c>
     </row>
     <row r="377">
@@ -13260,10 +13260,10 @@
         <v>20.46189744625027</v>
       </c>
       <c r="I377" t="n">
-        <v>51.8589104949486</v>
+        <v>10.88205539565097</v>
       </c>
       <c r="J377" t="n">
-        <v>77.5569513737664</v>
+        <v>36.58009627446877</v>
       </c>
     </row>
     <row r="378">
@@ -13294,10 +13294,10 @@
         <v>50.09024080826</v>
       </c>
       <c r="I378" t="n">
-        <v>45.68474511747949</v>
+        <v>4.707890018181857</v>
       </c>
       <c r="J378" t="n">
-        <v>47.92860801175667</v>
+        <v>6.951752912459035</v>
       </c>
     </row>
     <row r="379">
@@ -13328,10 +13328,10 @@
         <v>44.61191864884361</v>
       </c>
       <c r="I379" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J379" t="n">
-        <v>53.40693017117306</v>
+        <v>12.43007507187542</v>
       </c>
     </row>
     <row r="380">
@@ -13362,10 +13362,10 @@
         <v>30.70725694390963</v>
       </c>
       <c r="I380" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J380" t="n">
-        <v>67.31159187610704</v>
+        <v>26.3347367768094</v>
       </c>
     </row>
     <row r="381">
@@ -13396,10 +13396,10 @@
         <v>34.68001743103361</v>
       </c>
       <c r="I381" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J381" t="n">
-        <v>63.33883138898306</v>
+        <v>22.36197628968542</v>
       </c>
     </row>
     <row r="382">
@@ -13430,10 +13430,10 @@
         <v>20.82336968239485</v>
       </c>
       <c r="I382" t="n">
-        <v>51.79648877206119</v>
+        <v>10.81963367276355</v>
       </c>
       <c r="J382" t="n">
-        <v>77.19547913762182</v>
+        <v>36.21862403832418</v>
       </c>
     </row>
     <row r="383">
@@ -13464,10 +13464,10 @@
         <v>15.84249586790676</v>
       </c>
       <c r="I383" t="n">
-        <v>52.67385970685113</v>
+        <v>11.6970046075535</v>
       </c>
       <c r="J383" t="n">
-        <v>82.17635295210991</v>
+        <v>41.19949785281227</v>
       </c>
     </row>
     <row r="384">
@@ -13498,10 +13498,10 @@
         <v>39.44733001558242</v>
       </c>
       <c r="I384" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J384" t="n">
-        <v>58.57151880443425</v>
+        <v>17.59466370513661</v>
       </c>
     </row>
     <row r="385">
@@ -13532,10 +13532,10 @@
         <v>42.02962433221301</v>
       </c>
       <c r="I385" t="n">
-        <v>49.83144573276146</v>
+        <v>8.854590633463822</v>
       </c>
       <c r="J385" t="n">
-        <v>55.98922448780366</v>
+        <v>15.01236938850602</v>
       </c>
     </row>
     <row r="386">
@@ -13566,10 +13566,10 @@
         <v>25.62885968038382</v>
       </c>
       <c r="I386" t="n">
-        <v>50.81212552586812</v>
+        <v>9.835270426570482</v>
       </c>
       <c r="J386" t="n">
-        <v>72.38998913963286</v>
+        <v>31.41313404033522</v>
       </c>
     </row>
     <row r="387">
@@ -13600,10 +13600,10 @@
         <v>46.81599660272773</v>
       </c>
       <c r="I387" t="n">
-        <v>46.84354455723985</v>
+        <v>5.866689457942208</v>
       </c>
       <c r="J387" t="n">
-        <v>51.20285221728894</v>
+        <v>10.22599711799131</v>
       </c>
     </row>
     <row r="388">
@@ -13634,10 +13634,10 @@
         <v>11.70512802783524</v>
       </c>
       <c r="I388" t="n">
-        <v>54.07124354573063</v>
+        <v>13.09438844643299</v>
       </c>
       <c r="J388" t="n">
-        <v>86.31372079218143</v>
+        <v>45.33686569288379</v>
       </c>
     </row>
     <row r="389">
@@ -13668,10 +13668,10 @@
         <v>17.25034602388597</v>
       </c>
       <c r="I389" t="n">
-        <v>52.51972757922603</v>
+        <v>11.54287247992839</v>
       </c>
       <c r="J389" t="n">
-        <v>80.7685027961307</v>
+        <v>39.79164769683307</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/plots/results-Fig2.xlsx
+++ b/benchmarks/results/plots/results-Fig2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J389"/>
+  <dimension ref="A1:J421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13674,6 +13674,1094 @@
         <v>39.79164769683307</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>500</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F390" t="n">
+        <v>47.97993275550777</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1056.614746349956</v>
+      </c>
+      <c r="H390" t="n">
+        <v>28.32741093155056</v>
+      </c>
+      <c r="I390" t="n">
+        <v>9.062060965211266</v>
+      </c>
+      <c r="J390" t="n">
+        <v>28.71458278916847</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>65</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>49.65609781879013</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1622.896866179913</v>
+      </c>
+      <c r="H391" t="n">
+        <v>45.73203552001451</v>
+      </c>
+      <c r="I391" t="n">
+        <v>7.385895901928905</v>
+      </c>
+      <c r="J391" t="n">
+        <v>11.30995820070452</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>580</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F392" t="n">
+        <v>47.11642464565518</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1013.447515844847</v>
+      </c>
+      <c r="H392" t="n">
+        <v>25.25085120935917</v>
+      </c>
+      <c r="I392" t="n">
+        <v>9.925569075063855</v>
+      </c>
+      <c r="J392" t="n">
+        <v>31.79114251135987</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>60</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F393" t="n">
+        <v>50.08872597113812</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1809.243007695047</v>
+      </c>
+      <c r="H393" t="n">
+        <v>46.05060087590582</v>
+      </c>
+      <c r="I393" t="n">
+        <v>6.953267749580917</v>
+      </c>
+      <c r="J393" t="n">
+        <v>10.99139284481321</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>420</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F394" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H394" t="n">
+        <v>31.50180904133441</v>
+      </c>
+      <c r="I394" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J394" t="n">
+        <v>25.54018467938462</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>3</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>53.87595673098347</v>
+      </c>
+      <c r="G395" t="n">
+        <v>10385.36486245873</v>
+      </c>
+      <c r="H395" t="n">
+        <v>52.71698023374482</v>
+      </c>
+      <c r="I395" t="n">
+        <v>3.166036989735566</v>
+      </c>
+      <c r="J395" t="n">
+        <v>4.325013486974214</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F396" t="n">
+        <v>54.58431692148883</v>
+      </c>
+      <c r="G396" t="n">
+        <v>21741.68594864994</v>
+      </c>
+      <c r="H396" t="n">
+        <v>53.77554729363442</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2.457676799230207</v>
+      </c>
+      <c r="J396" t="n">
+        <v>3.266446427084617</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>8</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F397" t="n">
+        <v>53.65701634015197</v>
+      </c>
+      <c r="G397" t="n">
+        <v>8747.874059747004</v>
+      </c>
+      <c r="H397" t="n">
+        <v>51.05371690347397</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3.384977380567065</v>
+      </c>
+      <c r="J397" t="n">
+        <v>5.988276817245065</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>6</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F398" t="n">
+        <v>53.71567707197253</v>
+      </c>
+      <c r="G398" t="n">
+        <v>9009.80646665667</v>
+      </c>
+      <c r="H398" t="n">
+        <v>51.70474070568839</v>
+      </c>
+      <c r="I398" t="n">
+        <v>3.326316648746506</v>
+      </c>
+      <c r="J398" t="n">
+        <v>5.337253015030647</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>610</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F399" t="n">
+        <v>46.86861350038294</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1002.245676223203</v>
+      </c>
+      <c r="H399" t="n">
+        <v>24.12624764429263</v>
+      </c>
+      <c r="I399" t="n">
+        <v>10.17338022033609</v>
+      </c>
+      <c r="J399" t="n">
+        <v>32.9157460764264</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1e+16</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F400" t="n">
+        <v>29.326573568</v>
+      </c>
+      <c r="G400" t="n">
+        <v>889.6259531912921</v>
+      </c>
+      <c r="H400" t="n">
+        <v>-330932225215385.4</v>
+      </c>
+      <c r="I400" t="n">
+        <v>27.71542015271903</v>
+      </c>
+      <c r="J400" t="n">
+        <v>330932225215442.4</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>630</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>46.70547397112593</v>
+      </c>
+      <c r="G401" t="n">
+        <v>995.1507456279003</v>
+      </c>
+      <c r="H401" t="n">
+        <v>23.38372923321111</v>
+      </c>
+      <c r="I401" t="n">
+        <v>10.3365197495931</v>
+      </c>
+      <c r="J401" t="n">
+        <v>33.65826448750792</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>620</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F402" t="n">
+        <v>46.78588689719382</v>
+      </c>
+      <c r="G402" t="n">
+        <v>998.6204177211238</v>
+      </c>
+      <c r="H402" t="n">
+        <v>23.75430615319304</v>
+      </c>
+      <c r="I402" t="n">
+        <v>10.25610682352522</v>
+      </c>
+      <c r="J402" t="n">
+        <v>33.28768756752599</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>390</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F403" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H403" t="n">
+        <v>32.69363718747162</v>
+      </c>
+      <c r="I403" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J403" t="n">
+        <v>24.34835653324741</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>4</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F404" t="n">
+        <v>53.80672461550006</v>
+      </c>
+      <c r="G404" t="n">
+        <v>9519.301348137373</v>
+      </c>
+      <c r="H404" t="n">
+        <v>52.39028950978646</v>
+      </c>
+      <c r="I404" t="n">
+        <v>3.235269105218975</v>
+      </c>
+      <c r="J404" t="n">
+        <v>4.651704210932571</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>410</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F405" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H405" t="n">
+        <v>31.89908509004681</v>
+      </c>
+      <c r="I405" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J405" t="n">
+        <v>25.14290863067222</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>7</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>53.49831041749932</v>
+      </c>
+      <c r="G406" t="n">
+        <v>8717.176637523147</v>
+      </c>
+      <c r="H406" t="n">
+        <v>51.22841681071766</v>
+      </c>
+      <c r="I406" t="n">
+        <v>3.543683303219716</v>
+      </c>
+      <c r="J406" t="n">
+        <v>5.813576910001373</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>145</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F407" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H407" t="n">
+        <v>42.42690038092541</v>
+      </c>
+      <c r="I407" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J407" t="n">
+        <v>14.61509333979362</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>740</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F408" t="n">
+        <v>45.88276327422266</v>
+      </c>
+      <c r="G408" t="n">
+        <v>962.6327851215189</v>
+      </c>
+      <c r="H408" t="n">
+        <v>19.38409894321065</v>
+      </c>
+      <c r="I408" t="n">
+        <v>11.15923044649637</v>
+      </c>
+      <c r="J408" t="n">
+        <v>37.65789477750839</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>370</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F409" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H409" t="n">
+        <v>33.48818928489641</v>
+      </c>
+      <c r="I409" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J409" t="n">
+        <v>23.55380443582263</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>600</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F410" t="n">
+        <v>46.95379500295929</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1006.038007987869</v>
+      </c>
+      <c r="H410" t="n">
+        <v>24.4996121787907</v>
+      </c>
+      <c r="I410" t="n">
+        <v>10.08819871775975</v>
+      </c>
+      <c r="J410" t="n">
+        <v>32.54238154192834</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>680</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F411" t="n">
+        <v>46.35242482763016</v>
+      </c>
+      <c r="G411" t="n">
+        <v>980.5402281018844</v>
+      </c>
+      <c r="H411" t="n">
+        <v>21.54932598189934</v>
+      </c>
+      <c r="I411" t="n">
+        <v>10.68956889308888</v>
+      </c>
+      <c r="J411" t="n">
+        <v>35.49266773881969</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>430</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F412" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H412" t="n">
+        <v>31.10453299262203</v>
+      </c>
+      <c r="I412" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J412" t="n">
+        <v>25.937460728097</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>730</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F413" t="n">
+        <v>45.95906874431417</v>
+      </c>
+      <c r="G413" t="n">
+        <v>965.4264344845503</v>
+      </c>
+      <c r="H413" t="n">
+        <v>19.74263210790998</v>
+      </c>
+      <c r="I413" t="n">
+        <v>11.08292497640486</v>
+      </c>
+      <c r="J413" t="n">
+        <v>37.29936161280905</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>165</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F414" t="n">
+        <v>48.18740308725522</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H414" t="n">
+        <v>41.63234828350063</v>
+      </c>
+      <c r="I414" t="n">
+        <v>8.854590633463815</v>
+      </c>
+      <c r="J414" t="n">
+        <v>15.4096454372184</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>400</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F415" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H415" t="n">
+        <v>32.29636113875923</v>
+      </c>
+      <c r="I415" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J415" t="n">
+        <v>24.7456325819598</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>640</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F416" t="n">
+        <v>46.62724313095844</v>
+      </c>
+      <c r="G416" t="n">
+        <v>991.8261512019781</v>
+      </c>
+      <c r="H416" t="n">
+        <v>23.01446184881642</v>
+      </c>
+      <c r="I416" t="n">
+        <v>10.41475058976059</v>
+      </c>
+      <c r="J416" t="n">
+        <v>34.02753187190261</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>75</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F417" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G417" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H417" t="n">
+        <v>45.2078327219122</v>
+      </c>
+      <c r="I417" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J417" t="n">
+        <v>11.83416099880684</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>55</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>50.59192765071704</v>
+      </c>
+      <c r="G418" t="n">
+        <v>2044.961440343802</v>
+      </c>
+      <c r="H418" t="n">
+        <v>46.40804564246646</v>
+      </c>
+      <c r="I418" t="n">
+        <v>6.450066070001995</v>
+      </c>
+      <c r="J418" t="n">
+        <v>10.63394807825257</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>125</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F419" t="n">
+        <v>48.18740308725521</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H419" t="n">
+        <v>43.22145247835022</v>
+      </c>
+      <c r="I419" t="n">
+        <v>8.854590633463822</v>
+      </c>
+      <c r="J419" t="n">
+        <v>13.82054124236881</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>105</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F420" t="n">
+        <v>48.1874030872552</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1067.974215221202</v>
+      </c>
+      <c r="H420" t="n">
+        <v>44.016004575775</v>
+      </c>
+      <c r="I420" t="n">
+        <v>8.854590633463836</v>
+      </c>
+      <c r="J420" t="n">
+        <v>13.02598914494403</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_optBouncing=False_initial_uhat=time_gradient_targetGroups=False_targetAct=False_targetTests=True</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>9</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F421" t="n">
+        <v>53.61810498285629</v>
+      </c>
+      <c r="G421" t="n">
+        <v>8596.69973313073</v>
+      </c>
+      <c r="H421" t="n">
+        <v>50.74000496139278</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3.423888737862747</v>
+      </c>
+      <c r="J421" t="n">
+        <v>6.301988759326257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
